--- a/issues/2022-11-08.xlsx
+++ b/issues/2022-11-08.xlsx
@@ -5432,7 +5432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5449,7 +5449,6 @@
     <col width="40" customWidth="1" min="8" max="8"/>
     <col width="40" customWidth="1" min="9" max="9"/>
     <col width="40" customWidth="1" min="10" max="10"/>
-    <col width="40" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5763,7 +5762,6 @@
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="n"/>
     </row>
     <row r="3" ht="120" customHeight="1">
       <c r="A3" t="n">
@@ -5819,7 +5817,6 @@
         </is>
       </c>
       <c r="J3" s="1" t="n"/>
-      <c r="K3" s="1" t="n"/>
     </row>
     <row r="4" ht="135" customHeight="1">
       <c r="A4" t="n">
@@ -5861,7 +5858,6 @@
       <c r="H4" s="1" t="n"/>
       <c r="I4" s="1" t="n"/>
       <c r="J4" s="1" t="n"/>
-      <c r="K4" s="1" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="n">
@@ -5915,7 +5911,6 @@
         </is>
       </c>
       <c r="J5" s="1" t="n"/>
-      <c r="K5" s="1" t="n"/>
     </row>
     <row r="6" ht="1575" customHeight="1">
       <c r="A6" t="n">
@@ -6104,7 +6099,6 @@
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
       <c r="J6" s="1" t="n"/>
-      <c r="K6" s="1" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="n">
@@ -6134,7 +6128,6 @@
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
     </row>
     <row r="8" ht="105" customHeight="1">
       <c r="A8" t="n">
@@ -6198,7 +6191,6 @@
 </t>
         </is>
       </c>
-      <c r="K8" s="1" t="n"/>
     </row>
     <row r="9" ht="1335" customHeight="1">
       <c r="A9" t="n">
@@ -6359,7 +6351,6 @@
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
     </row>
     <row r="10" ht="75" customHeight="1">
       <c r="A10" t="n">
@@ -6418,7 +6409,6 @@
 </t>
         </is>
       </c>
-      <c r="K10" s="1" t="n"/>
     </row>
     <row r="11" ht="1530" customHeight="1">
       <c r="A11" t="n">
@@ -6581,7 +6571,6 @@
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="n"/>
       <c r="J11" s="1" t="n"/>
-      <c r="K11" s="1" t="n"/>
     </row>
     <row r="12" ht="165" customHeight="1">
       <c r="A12" t="n">
@@ -6643,7 +6632,6 @@
 </t>
         </is>
       </c>
-      <c r="K12" s="1" t="n"/>
     </row>
     <row r="13" ht="75" customHeight="1">
       <c r="A13" t="n">
@@ -6694,7 +6682,6 @@
       </c>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="1" t="n"/>
-      <c r="K13" s="1" t="n"/>
     </row>
     <row r="14" ht="1380" customHeight="1">
       <c r="A14" t="n">
@@ -6878,7 +6865,6 @@
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="1" t="n"/>
-      <c r="K14" s="1" t="n"/>
     </row>
     <row r="15" ht="195" customHeight="1">
       <c r="A15" t="n">
@@ -6934,7 +6920,6 @@
         </is>
       </c>
       <c r="J15" s="1" t="n"/>
-      <c r="K15" s="1" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="n">
@@ -6988,7 +6973,6 @@
         </is>
       </c>
       <c r="J16" s="1" t="n"/>
-      <c r="K16" s="1" t="n"/>
     </row>
     <row r="17" ht="2775" customHeight="1">
       <c r="A17" t="n">
@@ -7283,7 +7267,6 @@
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
     </row>
     <row r="18" ht="90" customHeight="1">
       <c r="A18" t="n">
@@ -7338,7 +7321,6 @@
         </is>
       </c>
       <c r="J18" s="1" t="n"/>
-      <c r="K18" s="1" t="n"/>
     </row>
     <row r="19" ht="75" customHeight="1">
       <c r="A19" t="n">
@@ -7382,7 +7364,6 @@
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1" t="n"/>
       <c r="J19" s="1" t="n"/>
-      <c r="K19" s="1" t="n"/>
     </row>
     <row r="20" ht="240" customHeight="1">
       <c r="A20" t="n">
@@ -7444,7 +7425,6 @@
         </is>
       </c>
       <c r="J20" s="1" t="n"/>
-      <c r="K20" s="1" t="n"/>
     </row>
     <row r="21" ht="75" customHeight="1">
       <c r="A21" t="n">
@@ -7498,7 +7478,6 @@
         </is>
       </c>
       <c r="J21" s="1" t="n"/>
-      <c r="K21" s="1" t="n"/>
     </row>
     <row r="22" ht="90" customHeight="1">
       <c r="A22" t="n">
@@ -7552,7 +7531,6 @@
         </is>
       </c>
       <c r="J22" s="1" t="n"/>
-      <c r="K22" s="1" t="n"/>
     </row>
     <row r="23" ht="150" customHeight="1">
       <c r="A23" t="n">
@@ -7610,7 +7588,6 @@
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
       <c r="J23" s="1" t="n"/>
-      <c r="K23" s="1" t="n"/>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" t="n">
@@ -7661,7 +7638,6 @@
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
       <c r="J24" s="1" t="n"/>
-      <c r="K24" s="1" t="n"/>
     </row>
     <row r="25" ht="90" customHeight="1">
       <c r="A25" t="n">
@@ -7716,7 +7692,6 @@
         </is>
       </c>
       <c r="J25" s="1" t="n"/>
-      <c r="K25" s="1" t="n"/>
     </row>
     <row r="26" ht="300" customHeight="1">
       <c r="A26" t="n">
@@ -7822,7 +7797,6 @@
       <c r="H26" s="1" t="n"/>
       <c r="I26" s="1" t="n"/>
       <c r="J26" s="1" t="n"/>
-      <c r="K26" s="1" t="n"/>
     </row>
     <row r="27" ht="4290" customHeight="1">
       <c r="A27" t="n">
@@ -8160,7 +8134,6 @@
       <c r="H27" s="1" t="n"/>
       <c r="I27" s="1" t="n"/>
       <c r="J27" s="1" t="n"/>
-      <c r="K27" s="1" t="n"/>
     </row>
     <row r="28" ht="120" customHeight="1">
       <c r="A28" t="n">
@@ -8208,7 +8181,6 @@
       <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
       <c r="J28" s="1" t="n"/>
-      <c r="K28" s="1" t="n"/>
     </row>
     <row r="29" ht="240" customHeight="1">
       <c r="A29" t="n">
@@ -8277,7 +8249,6 @@
       <c r="H29" s="1" t="n"/>
       <c r="I29" s="1" t="n"/>
       <c r="J29" s="1" t="n"/>
-      <c r="K29" s="1" t="n"/>
     </row>
     <row r="30" ht="1620" customHeight="1">
       <c r="A30" t="n">
@@ -8493,7 +8464,6 @@
       <c r="H30" s="1" t="n"/>
       <c r="I30" s="1" t="n"/>
       <c r="J30" s="1" t="n"/>
-      <c r="K30" s="1" t="n"/>
     </row>
     <row r="31" ht="930" customHeight="1">
       <c r="A31" t="n">
@@ -8623,7 +8593,6 @@
       <c r="H31" s="1" t="n"/>
       <c r="I31" s="1" t="n"/>
       <c r="J31" s="1" t="n"/>
-      <c r="K31" s="1" t="n"/>
     </row>
     <row r="32" ht="2970" customHeight="1">
       <c r="A32" t="n">
@@ -8953,7 +8922,6 @@
       <c r="H32" s="1" t="n"/>
       <c r="I32" s="1" t="n"/>
       <c r="J32" s="1" t="n"/>
-      <c r="K32" s="1" t="n"/>
     </row>
     <row r="33" ht="75" customHeight="1">
       <c r="A33" t="n">
@@ -9007,7 +8975,6 @@
         </is>
       </c>
       <c r="J33" s="1" t="n"/>
-      <c r="K33" s="1" t="n"/>
     </row>
     <row r="34" ht="615" customHeight="1">
       <c r="A34" t="n">
@@ -9121,7 +9088,6 @@
       <c r="H34" s="1" t="n"/>
       <c r="I34" s="1" t="n"/>
       <c r="J34" s="1" t="n"/>
-      <c r="K34" s="1" t="n"/>
     </row>
     <row r="35" ht="735" customHeight="1">
       <c r="A35" t="n">
@@ -9229,7 +9195,6 @@
       <c r="H35" s="1" t="n"/>
       <c r="I35" s="1" t="n"/>
       <c r="J35" s="1" t="n"/>
-      <c r="K35" s="1" t="n"/>
     </row>
     <row r="36" ht="105" customHeight="1">
       <c r="A36" t="n">
@@ -9274,7 +9239,6 @@
       <c r="H36" s="1" t="n"/>
       <c r="I36" s="1" t="n"/>
       <c r="J36" s="1" t="n"/>
-      <c r="K36" s="1" t="n"/>
     </row>
     <row r="37" ht="75" customHeight="1">
       <c r="A37" t="n">
@@ -9319,7 +9283,6 @@
       <c r="H37" s="1" t="n"/>
       <c r="I37" s="1" t="n"/>
       <c r="J37" s="1" t="n"/>
-      <c r="K37" s="1" t="n"/>
     </row>
     <row r="38" ht="75" customHeight="1">
       <c r="A38" t="n">
@@ -9373,7 +9336,6 @@
         </is>
       </c>
       <c r="J38" s="1" t="n"/>
-      <c r="K38" s="1" t="n"/>
     </row>
     <row r="39" ht="315" customHeight="1">
       <c r="A39" t="n">
@@ -9474,7 +9436,6 @@
       <c r="H39" s="1" t="n"/>
       <c r="I39" s="1" t="n"/>
       <c r="J39" s="1" t="n"/>
-      <c r="K39" s="1" t="n"/>
     </row>
     <row r="40" ht="1050" customHeight="1">
       <c r="A40" t="n">
@@ -9735,7 +9696,6 @@
       <c r="H40" s="1" t="n"/>
       <c r="I40" s="1" t="n"/>
       <c r="J40" s="1" t="n"/>
-      <c r="K40" s="1" t="n"/>
     </row>
     <row r="41" ht="90" customHeight="1">
       <c r="A41" t="n">
@@ -9791,7 +9751,6 @@
         </is>
       </c>
       <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="n"/>
     </row>
     <row r="42" ht="165" customHeight="1">
       <c r="A42" t="n">
@@ -9853,7 +9812,6 @@
       <c r="H42" s="1" t="n"/>
       <c r="I42" s="1" t="n"/>
       <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
     </row>
     <row r="43" ht="405" customHeight="1">
       <c r="A43" t="n">
@@ -9911,7 +9869,6 @@
       <c r="H43" s="1" t="n"/>
       <c r="I43" s="1" t="n"/>
       <c r="J43" s="1" t="n"/>
-      <c r="K43" s="1" t="n"/>
     </row>
     <row r="44" ht="75" customHeight="1">
       <c r="A44" t="n">
@@ -9965,7 +9922,6 @@
         </is>
       </c>
       <c r="J44" s="1" t="n"/>
-      <c r="K44" s="1" t="n"/>
     </row>
     <row r="45" ht="75" customHeight="1">
       <c r="A45" t="n">
@@ -10019,7 +9975,6 @@
         </is>
       </c>
       <c r="J45" s="1" t="n"/>
-      <c r="K45" s="1" t="n"/>
     </row>
     <row r="46" ht="720" customHeight="1">
       <c r="A46" t="n">
@@ -10127,7 +10082,6 @@
       <c r="H46" s="1" t="n"/>
       <c r="I46" s="1" t="n"/>
       <c r="J46" s="1" t="n"/>
-      <c r="K46" s="1" t="n"/>
     </row>
     <row r="47" ht="1050" customHeight="1">
       <c r="A47" t="n">
@@ -10277,7 +10231,6 @@
       <c r="H47" s="1" t="n"/>
       <c r="I47" s="1" t="n"/>
       <c r="J47" s="1" t="n"/>
-      <c r="K47" s="1" t="n"/>
     </row>
     <row r="48" ht="270" customHeight="1">
       <c r="A48" t="n">
@@ -10333,7 +10286,6 @@
         </is>
       </c>
       <c r="J48" s="1" t="n"/>
-      <c r="K48" s="1" t="n"/>
     </row>
     <row r="49" ht="75" customHeight="1">
       <c r="A49" t="n">
@@ -10387,7 +10339,6 @@
         </is>
       </c>
       <c r="J49" s="1" t="n"/>
-      <c r="K49" s="1" t="n"/>
     </row>
     <row r="50" ht="75" customHeight="1">
       <c r="A50" t="n">
@@ -10442,7 +10393,6 @@
         </is>
       </c>
       <c r="J50" s="1" t="n"/>
-      <c r="K50" s="1" t="n"/>
     </row>
     <row r="51" ht="90" customHeight="1">
       <c r="A51" t="n">
@@ -10488,7 +10438,6 @@
       <c r="H51" s="1" t="n"/>
       <c r="I51" s="1" t="n"/>
       <c r="J51" s="1" t="n"/>
-      <c r="K51" s="1" t="n"/>
     </row>
     <row r="52" ht="90" customHeight="1">
       <c r="A52" t="n">
@@ -10543,7 +10492,6 @@
         </is>
       </c>
       <c r="J52" s="1" t="n"/>
-      <c r="K52" s="1" t="n"/>
     </row>
     <row r="53" ht="90" customHeight="1">
       <c r="A53" t="n">
@@ -10556,53 +10504,47 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027081101_1](https://user-images.githubusercontent.com/43299334/198196681-0c502efa-e95a-4c5a-8ffe-7fd81a03dfd7.jpg)
 </t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221027081101_1](https://user-images.githubusercontent.com/43299334/198196681-0c502efa-e95a-4c5a-8ffe-7fd81a03dfd7.jpg)
+          <t xml:space="preserve">飾り細工工房
 </t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">飾り細工工房
+          <t xml:space="preserve">Tooling Workshops
 </t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tooling Workshops
+          <t xml:space="preserve">工具工房
 </t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">工具工房
+          <t xml:space="preserve">飾り細工の要素はないため。
 </t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">飾り細工の要素はないため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J53" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K53" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">なし
 </t>
@@ -10657,7 +10599,6 @@
       <c r="H54" s="1" t="n"/>
       <c r="I54" s="1" t="n"/>
       <c r="J54" s="1" t="n"/>
-      <c r="K54" s="1" t="n"/>
     </row>
     <row r="55" ht="90" customHeight="1">
       <c r="A55" t="n">
@@ -10711,7 +10652,6 @@
         </is>
       </c>
       <c r="J55" s="1" t="n"/>
-      <c r="K55" s="1" t="n"/>
     </row>
     <row r="56" ht="330" customHeight="1">
       <c r="A56" t="n">
@@ -10791,7 +10731,6 @@
       <c r="H56" s="1" t="n"/>
       <c r="I56" s="1" t="n"/>
       <c r="J56" s="1" t="n"/>
-      <c r="K56" s="1" t="n"/>
     </row>
     <row r="57" ht="75" customHeight="1">
       <c r="A57" t="n">
@@ -10845,7 +10784,6 @@
         </is>
       </c>
       <c r="J57" s="1" t="n"/>
-      <c r="K57" s="1" t="n"/>
     </row>
     <row r="58" ht="75" customHeight="1">
       <c r="A58" t="n">
@@ -10899,7 +10837,6 @@
         </is>
       </c>
       <c r="J58" s="1" t="n"/>
-      <c r="K58" s="1" t="n"/>
     </row>
     <row r="59" ht="75" customHeight="1">
       <c r="A59" t="n">
@@ -10953,7 +10890,6 @@
         </is>
       </c>
       <c r="J59" s="1" t="n"/>
-      <c r="K59" s="1" t="n"/>
     </row>
     <row r="60" ht="135" customHeight="1">
       <c r="A60" t="n">
@@ -11014,7 +10950,6 @@
       <c r="H60" s="1" t="n"/>
       <c r="I60" s="1" t="n"/>
       <c r="J60" s="1" t="n"/>
-      <c r="K60" s="1" t="n"/>
     </row>
     <row r="61" ht="60" customHeight="1">
       <c r="A61" t="n">
@@ -13988,19 +13923,13 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">![20221031150036_1](https://user-images.githubusercontent.com/38329957/199223896-50143b21-fc23-4922-8b31-c44d6f53102c.jpg)
 ![20221031150150_1](https://user-images.githubusercontent.com/38329957/199223976-c06c652b-830e-4f1e-b8f6-322b028e4345.jpg)
 ![20221031150047_1](https://user-images.githubusercontent.com/38329957/199227193-25b8b16b-e73c-457f-9603-85d1f19539dd.jpg)
 </t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="D46" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">教育システム
 経済システム
@@ -14012,7 +13941,7 @@
 </t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="E46" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Education System
 Economic System
@@ -14024,7 +13953,7 @@
 </t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="F46" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">教育制度
 経済制度
@@ -14036,30 +13965,31 @@
 </t>
         </is>
       </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本語の表現として違和感を感じる。
+</t>
+        </is>
+      </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">日本語の表現として違和感を感じる。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="n"/>
     </row>
     <row r="47" ht="180" customHeight="1">
       <c r="A47" t="n">
@@ -14072,47 +14002,47 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">![20221028114757_1](https://user-images.githubusercontent.com/43299334/199206354-9fc26f1b-b4ef-48b5-82fd-9bacb64d9a30.jpg)
 ![20221028114813_1](https://user-images.githubusercontent.com/43299334/199207307-423b82ad-5308-408d-bbef-4f0d6219201e.jpg)
 </t>
         </is>
       </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">（制度）を修復
+</t>
+        </is>
+      </c>
       <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">（制度）を修復
-</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Restore [LawType.GetName]
 Enact [LawType.GetName]
 </t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="F47" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">（制度）の復活
 （制度）の制定
 </t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
+      <c r="G47" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">日本語として不自然なため
 体言止めでなくするなら、「（制度）を復活させる」などになる
 </t>
         </is>
       </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">なし
 </t>
         </is>
       </c>
@@ -14122,12 +14052,7 @@
 </t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="K47" s="1" t="n"/>
     </row>
     <row r="48" ht="90" customHeight="1">
       <c r="A48" t="n">
@@ -14140,35 +14065,29 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Notorious](https://user-images.githubusercontent.com/42687608/199172011-48b9c4df-4e50-4643-9898-133c8917add7.jpg)
 </t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Notorious](https://user-images.githubusercontent.com/42687608/199172011-48b9c4df-4e50-4643-9898-133c8917add7.jpg)
+          <t xml:space="preserve">悪名
 </t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">悪名
+          <t xml:space="preserve">Notorious
 </t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notorious
+          <t xml:space="preserve">外道 / 悪辣 / 無法 / 非道 など
 </t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">外道 / 悪辣 / 無法 / 非道 など
-</t>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">外交評判の悪さを意味する用語Infamyの訳が「悪名」であり、重複しているため。
 Infamyの各段階は次の通りで、これらの訳の妥当性も併せて議論したい。
@@ -14179,25 +14098,26 @@
 </t>
         </is>
       </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="J48" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- 自作Mod多数
 </t>
         </is>
       </c>
+      <c r="K48" s="1" t="n"/>
     </row>
     <row r="49" ht="75" customHeight="1">
       <c r="A49" t="n">
@@ -14210,59 +14130,54 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![film](https://user-images.githubusercontent.com/42687608/199171425-254c42c9-7112-4304-af3b-9cab347581eb.jpg)
 </t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![film](https://user-images.githubusercontent.com/42687608/199171425-254c42c9-7112-4304-af3b-9cab347581eb.jpg)
+          <t xml:space="preserve">フィルム
 </t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">フィルム
+          <t xml:space="preserve">Film
 </t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Film
+          <t xml:space="preserve">映画
 </t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">映画
+          <t xml:space="preserve">アイコンからも説明文からも映画を意味していると思われるため。
 </t>
         </is>
       </c>
       <c r="H49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">アイコンからも説明文からも映画を意味していると思われるため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I49" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J49" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="J49" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- 自作Mod多数
 </t>
         </is>
       </c>
+      <c r="K49" s="1" t="n"/>
     </row>
     <row r="50" ht="195" customHeight="1">
       <c r="A50" t="n">
@@ -14275,35 +14190,29 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![peasant](https://user-images.githubusercontent.com/50406316/199136456-0a2338d8-52cf-4218-9115-66e334bdb3b3.png)
 </t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![peasant](https://user-images.githubusercontent.com/50406316/199136456-0a2338d8-52cf-4218-9115-66e334bdb3b3.png)
+          <t xml:space="preserve">小作農
 </t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">小作農
+          <t xml:space="preserve">Peasants
 </t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peasants
+          <t xml:space="preserve">小農民
 </t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">小農民
-</t>
-        </is>
-      </c>
-      <c r="H50" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">英語のPeasantsは土地を持たず地代を払っている小作農と小規模な土地を持つ自作農を両方含むが、日本語で小作人としてしまうと前者の土地なし農民だけを表してしまうことになり、訳語が対応していない。
 現実でも日本の小作農は全農家中の2～3割程度だったらしいし、フランスのように革命で自作農が増えた国でもゲーム中では大量のPeasantsがいるので、小作人とするのは適していないように思える。
@@ -14312,24 +14221,25 @@
 </t>
         </is>
       </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J50" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">JapaneseLanguageAdvancedMod（更新: 11月1日 @ 7時10分）
 </t>
         </is>
       </c>
+      <c r="K50" s="1" t="n"/>
     </row>
     <row r="51" ht="90" customHeight="1">
       <c r="A51" t="n">
@@ -14342,17 +14252,11 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![plants](https://user-images.githubusercontent.com/50406316/198982933-0f24cff1-e520-49d7-9255-0ed579eeac79.png)
 </t>
         </is>
       </c>
       <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">![plants](https://user-images.githubusercontent.com/50406316/198982933-0f24cff1-e520-49d7-9255-0ed579eeac79.png)
-</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> pm_hydroelectric_plant:0 "水力発電プラント"
  pm_coal-fired_plant:0 "石炭燃焼プラント"
@@ -14360,7 +14264,7 @@
 </t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="E51" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> pm_hydroelectric_plant:0 "Hydroelectric Plant"
  pm_coal-fired_plant:0 "Coal-Fired Plant"
@@ -14368,37 +14272,38 @@
 </t>
         </is>
       </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">水力発電所/石炭火力発電所/石油火力発電所
+</t>
+        </is>
+      </c>
       <c r="G51" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">水力発電所/石炭火力発電所/石油火力発電所
-</t>
-        </is>
-      </c>
-      <c r="H51" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">一般には〇〇発電所と訳すのが定訳であるため。
 #105にてPower Plantsを電力プラント→発電所に改訳しており、それに表記を合わせたい。
 </t>
         </is>
       </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">JapaneseLanguageAdvancedMod（更新: 10月31日 @ 7時10分）
 </t>
         </is>
       </c>
+      <c r="K51" s="1" t="n"/>
     </row>
     <row r="52" ht="90" customHeight="1">
       <c r="A52" t="n">
@@ -14411,58 +14316,53 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221031180035_1](https://user-images.githubusercontent.com/42710893/198971422-a7126238-c6c5-448a-bfa5-46941e3372fb.jpg)
 </t>
         </is>
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221031180035_1](https://user-images.githubusercontent.com/42710893/198971422-a7126238-c6c5-448a-bfa5-46941e3372fb.jpg)
+          <t xml:space="preserve">まっさらな紙
 </t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">まっさらな紙
+          <t xml:space="preserve">Paper Bleaching
 </t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paper Bleaching
+          <t xml:space="preserve">「漂白紙」、あるいは単に「漂白」　等
 </t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">「漂白紙」、あるいは単に「漂白」　等
+          <t xml:space="preserve">まっさらな紙では意味がわかりにくい。
 </t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">まっさらな紙では意味がわかりにくい。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K52" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K52" s="1" t="n"/>
     </row>
     <row r="53" ht="90" customHeight="1">
       <c r="A53" t="n">
@@ -14475,43 +14375,43 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![スクリーンショット_20221031_063300](https://user-images.githubusercontent.com/117048815/198914103-1ea99521-c448-413a-ad61-b2726c3968a5.png)
 </t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![スクリーンショット_20221031_063300](https://user-images.githubusercontent.com/117048815/198914103-1ea99521-c448-413a-ad61-b2726c3968a5.png)
+          <t xml:space="preserve">敬虔
 </t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">敬虔
+          <t xml:space="preserve">Devout
 </t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Devout
+          <t xml:space="preserve">敬虔な信者/信者/聖職者/宗教団体
 </t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">敬虔な信者/信者/聖職者/宗教団体
+          <t xml:space="preserve">敬虔だけでは団体の名前として違和感があるため。
 </t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">敬虔だけでは団体の名前として違和感があるため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
@@ -14521,12 +14421,7 @@
 </t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
+      <c r="K53" s="1" t="n"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="n">
@@ -14539,31 +14434,31 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">インテリゲンチャ
 </t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">インテリゲンチャ
+          <t xml:space="preserve">知識人/知識階級
 </t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">知識人/知識階級
+          <t xml:space="preserve">他の利益団体の名前と比べて浮いているため
 </t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">他の利益団体の名前と比べて浮いているため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
@@ -14573,12 +14468,7 @@
 </t>
         </is>
       </c>
-      <c r="I54" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
+      <c r="I54" s="1" t="n"/>
       <c r="J54" s="1" t="n"/>
       <c r="K54" s="1" t="n"/>
     </row>
@@ -14593,43 +14483,43 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![スクリーンショット_20221031_073117](https://user-images.githubusercontent.com/117048815/198909080-c8995530-8f6a-45e8-b434-07e036c31135.png)
 </t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![スクリーンショット_20221031_073117](https://user-images.githubusercontent.com/117048815/198909080-c8995530-8f6a-45e8-b434-07e036c31135.png)
+          <t xml:space="preserve">電力建造物
 </t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">電力建造物
+          <t xml:space="preserve">Power Structure
 </t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Structure
+          <t xml:space="preserve">権力構造
 </t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">権力構造
+          <t xml:space="preserve">誤訳の修正です。
 </t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">誤訳の修正です。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
@@ -14639,12 +14529,7 @@
 </t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
+      <c r="K55" s="1" t="n"/>
     </row>
     <row r="56" ht="165" customHeight="1">
       <c r="A56" t="n">
@@ -14657,63 +14542,58 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29177147/198883244-42c661bd-9da0-46f3-b0d9-3688bb9e0797.png)
 ![image](https://user-images.githubusercontent.com/29177147/198883562-5db8b1fb-b007-43e6-a3b1-df4bb0dabbf2.png)
 </t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="D56" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> concept_recognized_power:0 "認知度"
  concept_recognized_powers:0 "認知度"
 </t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="E56" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> concept_recognized_power:0 "Recognized Power"
  concept_recognized_powers:0 "Recognized Powers"
 </t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="F56" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> concept_recognized_power:0 "承認国"
  concept_recognized_powers:0 "承認国"
 </t>
         </is>
       </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">誤訳
+</t>
+        </is>
+      </c>
       <c r="H56" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">誤訳
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J56" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K56" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">日本語改善MOD
 Switch Languages
 </t>
         </is>
       </c>
+      <c r="K56" s="1" t="n"/>
     </row>
     <row r="57" ht="165" customHeight="1">
       <c r="A57" t="n">
@@ -14726,60 +14606,55 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29177147/198882442-00b515fc-a08d-4c3d-bd90-e6ec56445668.png)
 ![image](https://user-images.githubusercontent.com/29177147/198883135-ac215e02-262b-47c5-aa69-60224149005b.png)
 </t>
         </is>
       </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">承認
+</t>
+        </is>
+      </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">承認
+          <t xml:space="preserve">Approval
 </t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Approval
+          <t xml:space="preserve">賛意
 </t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">賛意
+          <t xml:space="preserve">政府への支持度合いを示す用語であり、承認よりも意味合いがタイトな賛意の方が向いてると思う。
 </t>
         </is>
       </c>
       <c r="H57" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">政府への支持度合いを示す用語であり、承認よりも意味合いがタイトな賛意の方が向いてると思う。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J57" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K57" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">日本語改善MOD
 Switch Languages
 </t>
         </is>
       </c>
+      <c r="K57" s="1" t="n"/>
     </row>
     <row r="58" ht="90" customHeight="1">
       <c r="A58" t="n">
@@ -14792,43 +14667,43 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221101123819_1](https://user-images.githubusercontent.com/6514922/199387917-818f25d6-3ac2-443f-b809-28088f6621be.jpg)
 </t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221101123819_1](https://user-images.githubusercontent.com/6514922/199387917-818f25d6-3ac2-443f-b809-28088f6621be.jpg)
+          <t xml:space="preserve">信用
 </t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">信用
+          <t xml:space="preserve">credit
 </t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">credit
+          <t xml:space="preserve">与信/与信枠/与信残高
 </t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">与信/与信枠/与信残高
+          <t xml:space="preserve">一般的に金融的な文脈での翻訳はcreditの場合与信が適切かと。
 </t>
         </is>
       </c>
       <c r="H58" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">一般的に金融的な文脈での翻訳はcreditの場合与信が適切かと。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
@@ -14838,12 +14713,7 @@
 </t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
+      <c r="K58" s="1" t="n"/>
     </row>
     <row r="59" ht="75" customHeight="1">
       <c r="A59" t="n">
@@ -14856,59 +14726,54 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![green_glass](https://user-images.githubusercontent.com/50406316/198871117-4495c788-3e93-49c4-b7ad-7b8f3aa925d4.png)
 </t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![green_glass](https://user-images.githubusercontent.com/50406316/198871117-4495c788-3e93-49c4-b7ad-7b8f3aa925d4.png)
+          <t xml:space="preserve">より青々しい生物キャンペーン
 </t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">より青々しい生物キャンペーン
+          <t xml:space="preserve">Greener Grass Campaign
 </t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Greener Grass Campaign
+          <t xml:space="preserve">隣の芝は青い運動
 </t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">隣の芝は青い運動
-</t>
-        </is>
-      </c>
-      <c r="H59" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">誤訳のため
 原文は「隣の芝生は青く見える」が元ネタ
 </t>
         </is>
       </c>
+      <c r="H59" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J59" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K59" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K59" s="1" t="n"/>
     </row>
     <row r="60" ht="75" customHeight="1">
       <c r="A60" t="n">
@@ -14921,58 +14786,53 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198870461-15151f14-c700-4d0a-be71-09ffb1aadfae.png)
 </t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198870461-15151f14-c700-4d0a-be71-09ffb1aadfae.png)
+          <t xml:space="preserve">国-州
 </t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">国-州
+          <t xml:space="preserve">Nation-State
 </t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nation-State
+          <t xml:space="preserve">国民国家
 </t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">国民国家
+          <t xml:space="preserve">誤訳
 </t>
         </is>
       </c>
       <c r="H60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">誤訳
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">Grand Edition
 </t>
         </is>
       </c>
       <c r="J60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grand Edition
-</t>
-        </is>
-      </c>
-      <c r="K60" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K60" s="1" t="n"/>
     </row>
     <row r="61" ht="90" customHeight="1">
       <c r="A61" t="n">
@@ -14985,58 +14845,53 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221030160934_1](https://user-images.githubusercontent.com/42710893/198867407-4cc472cb-d0e7-496b-bb41-fde69c172d78.jpg)
 </t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221030160934_1](https://user-images.githubusercontent.com/42710893/198867407-4cc472cb-d0e7-496b-bb41-fde69c172d78.jpg)
+          <t xml:space="preserve">war_goal_make_vassal_type_name:0 "家臣化"
 </t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">war_goal_make_vassal_type_name:0 "家臣化"
+          <t xml:space="preserve">war_goal_make_vassal_type_name:0 "Make Vassal"
 </t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">war_goal_make_vassal_type_name:0 "Make Vassal"
+          <t xml:space="preserve">従属化
 </t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">従属化
+          <t xml:space="preserve">国家間の外交関係を示す適切な用語ではないため。
 </t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">国家間の外交関係を示す適切な用語ではないため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K61" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K61" s="1" t="n"/>
     </row>
     <row r="62" ht="90" customHeight="1">
       <c r="A62" t="n">
@@ -15049,58 +14904,53 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![national_militia](https://user-images.githubusercontent.com/50406316/198849945-eab0ed6a-b051-4094-990f-8bc02b077d7b.png)
 </t>
         </is>
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![national_militia](https://user-images.githubusercontent.com/50406316/198849945-eab0ed6a-b051-4094-990f-8bc02b077d7b.png)
+          <t xml:space="preserve">国有軍
 </t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">国有軍
+          <t xml:space="preserve">National Militia
 </t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">National Militia
+          <t xml:space="preserve">国民民兵
 </t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">国民民兵
+          <t xml:space="preserve">原文はMilitiaで、テキストでも常備軍を持たない代わりに戦時に民兵が戦うものと書いてあるため、より原文の意味に沿った訳語にしたい。
 </t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">原文はMilitiaで、テキストでも常備軍を持たない代わりに戦時に民兵が戦うものと書いてあるため、より原文の意味に沿った訳語にしたい。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J62" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K62" s="1" t="n"/>
     </row>
     <row r="63" ht="240" customHeight="1">
       <c r="A63" t="n">
@@ -15113,26 +14963,20 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">![image](https://user-images.githubusercontent.com/37979626/198835966-9d1a0f69-3e0d-40d0-8a81-20b5ae116a8b.png)
 ![image](https://user-images.githubusercontent.com/37979626/198835970-7f4a3a2e-283c-4404-bd13-d0a78597c1e3.png)
 ![image](https://user-images.githubusercontent.com/37979626/198837857-2b2e259b-af5a-44fb-83a6-37be67fe827f.png)
 </t>
         </is>
       </c>
-      <c r="E63" s="1" t="inlineStr">
+      <c r="D63" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">施設ウィンドウの生産画面の価格（価格帯）
 ※「合計でもっと」のあたりは別で起票中
 </t>
         </is>
       </c>
-      <c r="F63" s="1" t="inlineStr">
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">`([現在の価格帯]) → ([変更後の価格帯]) in $NUM_STATES$ [Concept('concept_state', '$concept_states$')]`
 `@money!$MIN_PRICE|1v$ $MIN_PRICE_ICON$ - @money!$MAX_PRICE|1v$ $MAX_PRICE_ICON$ in $NUM_STATES$ [Concept('concept_state', '$concept_states$')]`
@@ -15140,7 +14984,7 @@
 </t>
         </is>
       </c>
-      <c r="G63" s="1" t="inlineStr">
+      <c r="F63" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">`([現在の価格帯]) → ([変更後の価格帯]) これは$NUM_STATES$[Concept('concept_state', '$concept_states$')]が対象です`
 `$NUM_STATES$[Concept('concept_state', '$concept_states$')]で@money!$MIN_PRICE|1v$ $MIN_PRICE_ICON$ - @money!$MAX_PRICE|1v$ $MAX_PRICE_ICON$`
@@ -15148,31 +14992,32 @@
 </t>
         </is>
       </c>
-      <c r="H63" s="1" t="inlineStr">
+      <c r="G63" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">分かりづらいため
 特に最初のは価格帯が括弧で表記されているため、急に「〇州で」と表示されても後ろに続くのが分かりにくいため、こちらで補う必要があると判断
 </t>
         </is>
       </c>
+      <c r="H63" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.1
+</t>
+        </is>
+      </c>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J63" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K63" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K63" s="1" t="n"/>
     </row>
     <row r="64" ht="45" customHeight="1">
       <c r="A64" t="n">
@@ -15185,52 +15030,47 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">金保有高
 </t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">金保有高
+          <t xml:space="preserve">Gold Reserves
 </t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gold Reserves
+          <t xml:space="preserve">金準備
 </t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">金準備
+          <t xml:space="preserve">gold reserveの定訳であるため。また、「(Gold Reserves)に金を備蓄」などの文章があり、こちらのほうが文意が通るため。
 </t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">gold reserveの定訳であるため。また、「(Gold Reserves)に金を備蓄」などの文章があり、こちらのほうが文意が通るため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="H64" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="I64" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="J64" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="J64" s="1" t="n"/>
       <c r="K64" s="1" t="n"/>
     </row>
     <row r="65" ht="75" customHeight="1">
@@ -15244,59 +15084,54 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![2022-10-29 (1)](https://user-images.githubusercontent.com/388340/198824451-9dffb7ab-703b-4ae4-b86c-a8e4179cfca0.png)
 </t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![2022-10-29 (1)](https://user-images.githubusercontent.com/388340/198824451-9dffb7ab-703b-4ae4-b86c-a8e4179cfca0.png)
+          <t xml:space="preserve">武装勢力
 </t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">武装勢力
+          <t xml:space="preserve">Armed Forces
 </t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Armed Forces
+          <t xml:space="preserve">軍人 or 軍人階級
 </t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">軍人 or 軍人階級
-</t>
-        </is>
-      </c>
-      <c r="H65" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">説明文には「国の軍事に強い関心や興味を示す職業軍人などのことです。」とあるため
 いわゆるゲリラなどの武装勢力ではなく、軍人を代表とする利益団体の名称であるため
 </t>
         </is>
       </c>
+      <c r="H65" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanilla(1.0.3), チェックサム：5fc2
+</t>
+        </is>
+      </c>
       <c r="I65" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vanilla(1.0.3), チェックサム：5fc2
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J65" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K65" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K65" s="1" t="n"/>
     </row>
     <row r="66" ht="75" customHeight="1">
       <c r="A66" t="n">
@@ -15309,58 +15144,53 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198824829-9bca9027-2189-4877-8ba5-58b2726bea36.png)
 </t>
         </is>
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198824829-9bca9027-2189-4877-8ba5-58b2726bea36.png)
+          <t xml:space="preserve">財政権
 </t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">財政権
+          <t xml:space="preserve">Power of the Purse
 </t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power of the Purse
+          <t xml:space="preserve">金力
 </t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">金力
+          <t xml:space="preserve">意味合いが異なってるため
 </t>
         </is>
       </c>
       <c r="H66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">意味合いが異なってるため
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J66" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K66" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K66" s="1" t="n"/>
     </row>
     <row r="67" ht="75" customHeight="1">
       <c r="A67" t="n">
@@ -15373,59 +15203,54 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Vickypedia](https://user-images.githubusercontent.com/42687608/198824367-aa03ef24-b854-4f87-8cc7-98646dd625a2.jpg)
 </t>
         </is>
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Vickypedia](https://user-images.githubusercontent.com/42687608/198824367-aa03ef24-b854-4f87-8cc7-98646dd625a2.jpg)
+          <t xml:space="preserve">ビッキーペディア
 </t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ビッキーペディア
+          <t xml:space="preserve">Vickypedia
 </t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vickypedia
+          <t xml:space="preserve">ヴィキペディア / Vickypedia（翻訳しない）
 </t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ヴィキペディア / Vickypedia（翻訳しない）
+          <t xml:space="preserve">日本語タイトルとの整合性が取れておらず、なんのことかわからないため。
 </t>
         </is>
       </c>
       <c r="H67" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">日本語タイトルとの整合性が取れておらず、なんのことかわからないため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I67" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J67" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K67" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J67" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K67" s="1" t="n"/>
     </row>
     <row r="68" ht="90" customHeight="1">
       <c r="A68" t="n">
@@ -15438,58 +15263,53 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221029164242_1](https://user-images.githubusercontent.com/42710893/198820553-c4ae16cb-0f73-425f-8b92-7ddce334f0b1.jpg)
 </t>
         </is>
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221029164242_1](https://user-images.githubusercontent.com/42710893/198820553-c4ae16cb-0f73-425f-8b92-7ddce334f0b1.jpg)
+          <t xml:space="preserve">爆発物
 </t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">爆発物
+          <t xml:space="preserve">Explosives
 </t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Explosives
+          <t xml:space="preserve">爆薬
 </t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">爆薬
+          <t xml:space="preserve">爆発物でも間違いではありませんが、個人的に爆薬のほうがしっくり来ます。
 </t>
         </is>
       </c>
       <c r="H68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">爆発物でも間違いではありませんが、個人的に爆薬のほうがしっくり来ます。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K68" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K68" s="1" t="n"/>
     </row>
     <row r="69" ht="90" customHeight="1">
       <c r="A69" t="n">
@@ -15502,35 +15322,29 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221029145711_1](https://user-images.githubusercontent.com/43299334/198820195-acb64d3b-b46c-4281-9789-32547befc202.jpg)
 </t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221029145711_1](https://user-images.githubusercontent.com/43299334/198820195-acb64d3b-b46c-4281-9789-32547befc202.jpg)
+          <t xml:space="preserve">動員/解体
 </t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">動員/解体
+          <t xml:space="preserve">Mobilized/Demobilized
 </t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobilized/Demobilized
+          <t xml:space="preserve">動員済/未動員
 </t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">動員済/未動員
-</t>
-        </is>
-      </c>
-      <c r="H69" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">そのユニットが動員済であるかどうかの表記。
 特に「解体」は部隊の消去コマンドと誤認させるため良くない。
@@ -15538,9 +15352,15 @@
 </t>
         </is>
       </c>
+      <c r="H69" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I69" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">なし
 </t>
         </is>
       </c>
@@ -15550,12 +15370,7 @@
 </t>
         </is>
       </c>
-      <c r="K69" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="K69" s="1" t="n"/>
     </row>
     <row r="70" ht="135" customHeight="1">
       <c r="A70" t="n">
@@ -15568,24 +15383,18 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221029160839_1](https://user-images.githubusercontent.com/43299334/198819256-8de5a95f-1d45-4aa7-ad12-2df6128aefa8.jpg)
 </t>
         </is>
       </c>
       <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">![20221029160839_1](https://user-images.githubusercontent.com/43299334/198819256-8de5a95f-1d45-4aa7-ad12-2df6128aefa8.jpg)
-</t>
-        </is>
-      </c>
-      <c r="E70" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">将軍/提督
 司令官ランク
 </t>
         </is>
       </c>
-      <c r="F70" s="1" t="inlineStr">
+      <c r="E70" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">General/Admiral
 Commander Rank
@@ -15595,14 +15404,14 @@
 </t>
         </is>
       </c>
-      <c r="G70" s="1" t="inlineStr">
+      <c r="F70" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">陸軍大将/海軍大将
 司令官階級
 </t>
         </is>
       </c>
-      <c r="H70" s="1" t="inlineStr">
+      <c r="G70" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">司令官の陸海軍の総称としての将軍、提督と訳が被っているため。
 もともとの訳に合わせてそれぞれ大将とした。
@@ -15610,9 +15419,15 @@
 </t>
         </is>
       </c>
+      <c r="H70" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I70" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">なし
 </t>
         </is>
       </c>
@@ -15622,12 +15437,7 @@
 </t>
         </is>
       </c>
-      <c r="K70" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="K70" s="1" t="n"/>
     </row>
     <row r="71" ht="75" customHeight="1">
       <c r="A71" t="n">
@@ -15640,58 +15450,53 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/37979626/198819167-6b36a7a5-e6b4-468c-8fbe-2e4d32bc0cf3.png)
 </t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/37979626/198819167-6b36a7a5-e6b4-468c-8fbe-2e4d32bc0cf3.png)
+          <t xml:space="preserve">海ノード
 </t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">海ノード
+          <t xml:space="preserve">Sea Node
 </t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sea Node
+          <t xml:space="preserve">海上ノード
 </t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">海上ノード
+          <t xml:space="preserve">個人的な好みと少し分かりにくい表現
 </t>
         </is>
       </c>
       <c r="H71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">個人的な好みと少し分かりにくい表現
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J71" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K71" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K71" s="1" t="n"/>
     </row>
     <row r="72" ht="75" customHeight="1">
       <c r="A72" t="n">
@@ -15704,35 +15509,29 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Money](https://user-images.githubusercontent.com/42687608/198819182-04cf4ccf-795b-4008-b73d-828aee5d0774.jpg)
 </t>
         </is>
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Money](https://user-images.githubusercontent.com/42687608/198819182-04cf4ccf-795b-4008-b73d-828aee5d0774.jpg)
+          <t xml:space="preserve">お金
 </t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">お金
+          <t xml:space="preserve">Money
 </t>
         </is>
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Money
+          <t xml:space="preserve">金銭 / 資金
 </t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">金銭 / 資金
-</t>
-        </is>
-      </c>
-      <c r="H72" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">脱力感を感じるため。
 十分な議論の上で代案を決めるべき。
@@ -15740,25 +15539,26 @@
 </t>
         </is>
       </c>
+      <c r="H72" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I72" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J72" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K72" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J72" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K72" s="1" t="n"/>
     </row>
     <row r="73" ht="75" customHeight="1">
       <c r="A73" t="n">
@@ -15771,59 +15571,54 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Prestige](https://user-images.githubusercontent.com/42687608/198818855-40e7f83f-68b3-49e0-823e-c6b8b6368dd6.jpg)
 </t>
         </is>
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Prestige](https://user-images.githubusercontent.com/42687608/198818855-40e7f83f-68b3-49e0-823e-c6b8b6368dd6.jpg)
+          <t xml:space="preserve">国威
 </t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">国威
+          <t xml:space="preserve">Prestige
 </t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prestige
+          <t xml:space="preserve">威信
 </t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">威信
+          <t xml:space="preserve">他のParadox作品の翻訳に揃えるため。
 </t>
         </is>
       </c>
       <c r="H73" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">他のParadox作品の翻訳に揃えるため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I73" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J73" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K73" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J73" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K73" s="1" t="n"/>
     </row>
     <row r="74" ht="75" customHeight="1">
       <c r="A74" t="n">
@@ -15836,60 +15631,55 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Decision](https://user-images.githubusercontent.com/42687608/198818350-a6f9c4c2-1522-4411-8917-e7b54da2316f.jpg)
 </t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Decision](https://user-images.githubusercontent.com/42687608/198818350-a6f9c4c2-1522-4411-8917-e7b54da2316f.jpg)
+          <t xml:space="preserve">判断
 </t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">判断
+          <t xml:space="preserve">Decision
 </t>
         </is>
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Decision
+          <t xml:space="preserve">決断 / ディシジョン
 </t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">決断 / ディシジョン
-</t>
-        </is>
-      </c>
-      <c r="H74" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">従来のParadox作品の翻訳とかけ離れているため。
 「決断」と「ディシジョン」のどちらを採用するかは議論が必要。
 </t>
         </is>
       </c>
+      <c r="H74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I74" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J74" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K74" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K74" s="1" t="n"/>
     </row>
     <row r="75" ht="90" customHeight="1">
       <c r="A75" t="n">
@@ -15902,60 +15692,55 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Resource Potential](https://user-images.githubusercontent.com/42687608/198818122-8eb32da0-0f5b-4a3c-aee3-71254f6a63c4.jpg)
 </t>
         </is>
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Resource Potential](https://user-images.githubusercontent.com/42687608/198818122-8eb32da0-0f5b-4a3c-aee3-71254f6a63c4.jpg)
+          <t xml:space="preserve">資源見込み
 </t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">資源見込み
+          <t xml:space="preserve">Resource Potential
 </t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Resource Potential
+          <t xml:space="preserve">潜在的資源
 </t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">潜在的資源
-</t>
-        </is>
-      </c>
-      <c r="H75" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">用語の意味がわかりにくいため。
 ゲーム中の使われ方がまだよく分かっていないので、変更には注意が必要。
 </t>
         </is>
       </c>
+      <c r="H75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I75" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J75" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K75" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K75" s="1" t="n"/>
     </row>
     <row r="76" ht="75" customHeight="1">
       <c r="A76" t="n">
@@ -15968,58 +15753,53 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198817826-f156feb6-8221-48c1-a7a3-1559ddc9ef89.png)
 </t>
         </is>
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198817826-f156feb6-8221-48c1-a7a3-1559ddc9ef89.png)
+          <t xml:space="preserve">将校
 </t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">将校
+          <t xml:space="preserve">Officers
 </t>
         </is>
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Officers
+          <t xml:space="preserve">士官
 </t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">士官
+          <t xml:space="preserve">好みです
 </t>
         </is>
       </c>
       <c r="H76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">好みです
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J76" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K76" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K76" s="1" t="n"/>
     </row>
     <row r="77" ht="75" customHeight="1">
       <c r="A77" t="n">
@@ -16032,35 +15812,29 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Incorporated](https://user-images.githubusercontent.com/42687608/198817798-2469ab14-ffa2-4e27-bf76-6e51cd6c03b5.jpg)
 </t>
         </is>
       </c>
       <c r="D77" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Incorporated](https://user-images.githubusercontent.com/42687608/198817798-2469ab14-ffa2-4e27-bf76-6e51cd6c03b5.jpg)
+          <t xml:space="preserve">併合された州 / 併合されていない州
 </t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">併合された州 / 併合されていない州
+          <t xml:space="preserve">Incorporated State / Unincorporated State
 </t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incorporated State / Unincorporated State
+          <t xml:space="preserve">編入州 / 未編入州
 </t>
         </is>
       </c>
       <c r="G77" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">編入州 / 未編入州
-</t>
-        </is>
-      </c>
-      <c r="H77" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">「併合」は国を併合するAnnexの訳語としても使われており、重複している。
 また、「併合済」（Incorporated）という表記ゆれもある。
@@ -16068,25 +15842,26 @@
 </t>
         </is>
       </c>
+      <c r="H77" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I77" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J77" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K77" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J77" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K77" s="1" t="n"/>
     </row>
     <row r="78" ht="75" customHeight="1">
       <c r="A78" t="n">
@@ -16099,58 +15874,53 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198817650-c246a470-2777-45f7-8652-c8a86c2b2c73.png)
 </t>
         </is>
       </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198817650-c246a470-2777-45f7-8652-c8a86c2b2c73.png)
+          <t xml:space="preserve">官僚
 </t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">官僚
+          <t xml:space="preserve">Bureaucrats
 </t>
         </is>
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bureaucrats
+          <t xml:space="preserve">公務員
 </t>
         </is>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">公務員
+          <t xml:space="preserve">官僚は主に中央省庁の公務員を指すが、今作では公共セクターで働く事務員のことを言っているため
 </t>
         </is>
       </c>
       <c r="H78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">官僚は主に中央省庁の公務員を指すが、今作では公共セクターで働く事務員のことを言っているため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J78" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K78" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K78" s="1" t="n"/>
     </row>
     <row r="79" ht="75" customHeight="1">
       <c r="A79" t="n">
@@ -16163,58 +15933,53 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198817606-acb4cdf3-fbf1-471f-9503-ecee33070b62.png)
 </t>
         </is>
       </c>
       <c r="D79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198817606-acb4cdf3-fbf1-471f-9503-ecee33070b62.png)
+          <t xml:space="preserve">軍人
 </t>
         </is>
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">軍人
+          <t xml:space="preserve">Servicemen
 </t>
         </is>
       </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servicemen
+          <t xml:space="preserve">兵士
 </t>
         </is>
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">兵士
+          <t xml:space="preserve">軍人だと高位の士官・将校を含む概念であるため
 </t>
         </is>
       </c>
       <c r="H79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">軍人だと高位の士官・将校を含む概念であるため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">Grand Edition
 </t>
         </is>
       </c>
       <c r="J79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grand Edition
-</t>
-        </is>
-      </c>
-      <c r="K79" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K79" s="1" t="n"/>
     </row>
     <row r="80" ht="75" customHeight="1">
       <c r="A80" t="n">
@@ -16227,58 +15992,53 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198817505-8fb2c438-dc48-4082-a9c2-fc03ce613b50.png)
 </t>
         </is>
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198817505-8fb2c438-dc48-4082-a9c2-fc03ce613b50.png)
+          <t xml:space="preserve">店主
 </t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">店主
+          <t xml:space="preserve">Shopkeepers
 </t>
         </is>
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shopkeepers
+          <t xml:space="preserve">商店主
 </t>
         </is>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">商店主
+          <t xml:space="preserve">好みです。
 </t>
         </is>
       </c>
       <c r="H80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">好みです。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">Grand Edition
 </t>
         </is>
       </c>
       <c r="J80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grand Edition
-</t>
-        </is>
-      </c>
-      <c r="K80" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K80" s="1" t="n"/>
     </row>
     <row r="81" ht="90" customHeight="1">
       <c r="A81" t="n">
@@ -16291,35 +16051,29 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![POP](https://user-images.githubusercontent.com/42687608/198817346-4e6d2ded-7d78-4fd9-ad56-190388786bf1.jpg)
 </t>
         </is>
       </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![POP](https://user-images.githubusercontent.com/42687608/198817346-4e6d2ded-7d78-4fd9-ad56-190388786bf1.jpg)
+          <t xml:space="preserve">下層民/中堅層/上流層
 </t>
         </is>
       </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">下層民/中堅層/上流層
+          <t xml:space="preserve">Lower Strata / Middle Strata / Upper Strata
 </t>
         </is>
       </c>
       <c r="F81" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lower Strata / Middle Strata / Upper Strata
+          <t xml:space="preserve">下流階級、中流階級、上流階級
 </t>
         </is>
       </c>
       <c r="G81" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">下流階級、中流階級、上流階級
-</t>
-        </is>
-      </c>
-      <c r="H81" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">3つの訳語が対になっていないため。
 strataは「社会階層」を表す言葉だが、一般的にはclass（階級）が用いられる。
@@ -16327,25 +16081,26 @@
 </t>
         </is>
       </c>
+      <c r="H81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I81" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J81" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K81" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K81" s="1" t="n"/>
     </row>
     <row r="82" ht="90" customHeight="1">
       <c r="A82" t="n">
@@ -16358,35 +16113,29 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Supply Network](https://user-images.githubusercontent.com/42687608/198816016-0de323c4-dfac-4484-98e2-672b1c30700b.jpg)
 </t>
         </is>
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Supply Network](https://user-images.githubusercontent.com/42687608/198816016-0de323c4-dfac-4484-98e2-672b1c30700b.jpg)
+          <t xml:space="preserve">サプライネットワーク
 </t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">サプライネットワーク
+          <t xml:space="preserve">Supply Network
 </t>
         </is>
       </c>
       <c r="F82" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supply Network
+          <t xml:space="preserve">供給ネットワーク
 </t>
         </is>
       </c>
       <c r="G82" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">供給ネットワーク
-</t>
-        </is>
-      </c>
-      <c r="H82" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">カタカナではわかりにくいため。
 「供給網」はSupply Chainの定訳らしいので「供給ネットワーク」とした。
@@ -16394,25 +16143,26 @@
 </t>
         </is>
       </c>
+      <c r="H82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I82" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J82" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K82" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K82" s="1" t="n"/>
     </row>
     <row r="83" ht="75" customHeight="1">
       <c r="A83" t="n">
@@ -16425,60 +16175,55 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Interest](https://user-images.githubusercontent.com/42687608/198815756-2302fcd8-2d91-455e-855a-509f93a601be.jpg)
 </t>
         </is>
       </c>
       <c r="D83" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Interest](https://user-images.githubusercontent.com/42687608/198815756-2302fcd8-2d91-455e-855a-509f93a601be.jpg)
+          <t xml:space="preserve">利益
 </t>
         </is>
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">利益
+          <t xml:space="preserve">Interest（キーはconcept_budget_interest）
 </t>
         </is>
       </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Interest（キーはconcept_budget_interest）
+          <t xml:space="preserve">利子
 </t>
         </is>
       </c>
       <c r="G83" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">利子
-</t>
-        </is>
-      </c>
-      <c r="H83" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">誤訳。
 支出欄の細目であり、まったく逆の意味になっている。
 </t>
         </is>
       </c>
+      <c r="H83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I83" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J83" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K83" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K83" s="1" t="n"/>
     </row>
     <row r="84" ht="75" customHeight="1">
       <c r="A84" t="n">
@@ -16491,35 +16236,29 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Turmoil](https://user-images.githubusercontent.com/42687608/198815528-12fc3921-52ed-4e5d-b8a2-3a45f0f80cd7.jpg)
 </t>
         </is>
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Turmoil](https://user-images.githubusercontent.com/42687608/198815528-12fc3921-52ed-4e5d-b8a2-3a45f0f80cd7.jpg)
+          <t xml:space="preserve">動揺度
 </t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">動揺度
+          <t xml:space="preserve">Turmoil
 </t>
         </is>
       </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Turmoil
+          <t xml:space="preserve">騒乱度/混乱度
 </t>
         </is>
       </c>
       <c r="G84" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">騒乱度/混乱度
-</t>
-        </is>
-      </c>
-      <c r="H84" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">ゲーム上の意味は、州ごとの急進派の割合を示すパラメーター。
 値がhighやlowで言及されるので「度」をつけることには賛成。
@@ -16527,25 +16266,26 @@
 </t>
         </is>
       </c>
+      <c r="H84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I84" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J84" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K84" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K84" s="1" t="n"/>
     </row>
     <row r="85" ht="75" customHeight="1">
       <c r="A85" t="n">
@@ -16558,59 +16298,54 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Loyalist](https://user-images.githubusercontent.com/42687608/198815222-cccb4f34-e4ad-493f-b45d-0b11ce2ef181.jpg)
 </t>
         </is>
       </c>
       <c r="D85" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Loyalist](https://user-images.githubusercontent.com/42687608/198815222-cccb4f34-e4ad-493f-b45d-0b11ce2ef181.jpg)
+          <t xml:space="preserve">政府体制支持者
 </t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">政府体制支持者
+          <t xml:space="preserve">Loyalist
 </t>
         </is>
       </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loyalist
+          <t xml:space="preserve">体制派
 </t>
         </is>
       </c>
       <c r="G85" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">体制派
+          <t xml:space="preserve">対になる急進派（Radical）と対になっておらず、一部の画面では文字あふれを起こしているため。
 </t>
         </is>
       </c>
       <c r="H85" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">対になる急進派（Radical）と対になっておらず、一部の画面では文字あふれを起こしているため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I85" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J85" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K85" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K85" s="1" t="n"/>
     </row>
     <row r="86" ht="75" customHeight="1">
       <c r="A86" t="n">
@@ -16623,59 +16358,54 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Shogun](https://user-images.githubusercontent.com/42687608/198815067-7836759a-9826-4e6c-9d00-97135618eec1.jpg)
 </t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Shogun](https://user-images.githubusercontent.com/42687608/198815067-7836759a-9826-4e6c-9d00-97135618eec1.jpg)
+          <t xml:space="preserve">法定相続人
 </t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">法定相続人
+          <t xml:space="preserve">Heir Apparent
 </t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heir Apparent
+          <t xml:space="preserve">後継者
 </t>
         </is>
       </c>
       <c r="G86" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">後継者
+          <t xml:space="preserve">誤訳のため。
 </t>
         </is>
       </c>
       <c r="H86" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">誤訳のため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I86" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J86" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K86" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J86" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K86" s="1" t="n"/>
     </row>
     <row r="87" ht="75" customHeight="1">
       <c r="A87" t="n">
@@ -16688,60 +16418,55 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Marginalized](https://user-images.githubusercontent.com/42687608/198814821-d95bdadc-4aee-400b-8ea1-cfcd262eb962.jpg)
 </t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Marginalized](https://user-images.githubusercontent.com/42687608/198814821-d95bdadc-4aee-400b-8ea1-cfcd262eb962.jpg)
+          <t xml:space="preserve">周縁集団
 </t>
         </is>
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">周縁集団
+          <t xml:space="preserve">Marginalized
 </t>
         </is>
       </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marginalized
+          <t xml:space="preserve">非主流派
 </t>
         </is>
       </c>
       <c r="G87" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">非主流派
-</t>
-        </is>
-      </c>
-      <c r="H87" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">誤訳のため。
 Marginalizedは形容詞として名詞を修飾するだけでなく、補語として単独でも使われるので訳語の選択には注意が必要。
 </t>
         </is>
       </c>
+      <c r="H87" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I87" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J87" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K87" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J87" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K87" s="1" t="n"/>
     </row>
     <row r="88" ht="75" customHeight="1">
       <c r="A88" t="n">
@@ -16754,60 +16479,55 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Shogun](https://user-images.githubusercontent.com/42687608/198814645-19e57a85-2eda-4b23-85ee-82a424844a89.jpg)
 </t>
         </is>
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Shogun](https://user-images.githubusercontent.com/42687608/198814645-19e57a85-2eda-4b23-85ee-82a424844a89.jpg)
+          <t xml:space="preserve">将軍
 </t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">将軍
+          <t xml:space="preserve">Shogun/General
 </t>
         </is>
       </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shogun/General
+          <t xml:space="preserve">征夷大将軍/将軍
 </t>
         </is>
       </c>
       <c r="G88" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">征夷大将軍/将軍
-</t>
-        </is>
-      </c>
-      <c r="H88" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">用語が重複しており、日本プレイではShogunとGeneralの見分けがつかないため。
 Shogunを「征夷大将軍」、Generalを「将軍」と訳し分けることで区別できるようにする。
 </t>
         </is>
       </c>
+      <c r="H88" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I88" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J88" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K88" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J88" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K88" s="1" t="n"/>
     </row>
     <row r="89" ht="75" customHeight="1">
       <c r="A89" t="n">
@@ -16820,60 +16540,55 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Sway](https://user-images.githubusercontent.com/42687608/198814453-1f6c51b5-1692-4b1e-aadc-2bf9d37cc258.jpg)
 </t>
         </is>
       </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Sway](https://user-images.githubusercontent.com/42687608/198814453-1f6c51b5-1692-4b1e-aadc-2bf9d37cc258.jpg)
+          <t xml:space="preserve">揺さぶり
 </t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">揺さぶり
+          <t xml:space="preserve">Sway
 </t>
         </is>
       </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sway
+          <t xml:space="preserve">懐柔
 </t>
         </is>
       </c>
       <c r="G89" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">懐柔
-</t>
-        </is>
-      </c>
-      <c r="H89" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">直訳としては間違っていないが、CK2/CK3では同じ単語を「懐柔」と訳しているため共通にしたい。
 また、用語が別の場面で引用される場合、熟語の方がなにかと扱いやすい。
 </t>
         </is>
       </c>
+      <c r="H89" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I89" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J89" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K89" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J89" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K89" s="1" t="n"/>
     </row>
     <row r="90" ht="75" customHeight="1">
       <c r="A90" t="n">
@@ -16886,35 +16601,29 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Obligation](https://user-images.githubusercontent.com/42687608/198814136-b23fed74-3ddb-402c-925f-5e99eb7507a1.jpg)
 </t>
         </is>
       </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Obligation](https://user-images.githubusercontent.com/42687608/198814136-b23fed74-3ddb-402c-925f-5e99eb7507a1.jpg)
+          <t xml:space="preserve">義務/恩義
 </t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">義務/恩義
+          <t xml:space="preserve">Obligation
 </t>
         </is>
       </c>
       <c r="F90" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obligation
+          <t xml:space="preserve">借り
 </t>
         </is>
       </c>
       <c r="G90" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">借り
-</t>
-        </is>
-      </c>
-      <c r="H90" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">場所によって「義務」と「恩義」で表記ゆれを起こしている。
 ゲーム上の意味は外交上の貸し借り。CK3のフックに相当する。
@@ -16922,25 +16631,26 @@
 </t>
         </is>
       </c>
+      <c r="H90" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I90" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J90" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K90" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J90" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K90" s="1" t="n"/>
     </row>
     <row r="91" ht="75" customHeight="1">
       <c r="A91" t="n">
@@ -16953,60 +16663,55 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![](https://user-images.githubusercontent.com/42687608/198813346-03cc59ac-b902-4928-823f-f814d9423195.jpg)
 </t>
         </is>
       </c>
       <c r="D91" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![](https://user-images.githubusercontent.com/42687608/198813346-03cc59ac-b902-4928-823f-f814d9423195.jpg)
+          <t xml:space="preserve">競争
 </t>
         </is>
       </c>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">競争
+          <t xml:space="preserve">Rivalry
 </t>
         </is>
       </c>
       <c r="F91" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rivalry
+          <t xml:space="preserve">ライバル
 </t>
         </is>
       </c>
       <c r="G91" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ライバル
-</t>
-        </is>
-      </c>
-      <c r="H91" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">他のParadox作品の定訳に合わせるため。
 ゲーム上の効果は両国間の関係を悪化させる代わりに影響力を獲得するというもの。
 </t>
         </is>
       </c>
+      <c r="H91" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I91" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0.3
-</t>
-        </is>
-      </c>
-      <c r="J91" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">- Victoria II Remastered Soundtrack
 - American Buildings Pack
 </t>
         </is>
       </c>
-      <c r="K91" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="J91" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K91" s="1" t="n"/>
     </row>
     <row r="92" ht="90" customHeight="1">
       <c r="A92" t="n">
@@ -17019,44 +16724,44 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221028120241_1](https://user-images.githubusercontent.com/43299334/198631355-f60ea1a7-a463-48fd-b47a-e3627dd271c1.jpg)
 </t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221028120241_1](https://user-images.githubusercontent.com/43299334/198631355-f60ea1a7-a463-48fd-b47a-e3627dd271c1.jpg)
+          <t xml:space="preserve">地主
 </t>
         </is>
       </c>
       <c r="E92" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">地主
+          <t xml:space="preserve">Landowners
 </t>
         </is>
       </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Landowners
+          <t xml:space="preserve">地主貴族
 </t>
         </is>
       </c>
       <c r="G92" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">地主貴族
-</t>
-        </is>
-      </c>
-      <c r="H92" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">画像のように、単なる土地所有者というよりは貴族的な色彩が強いため。
 ユンカーなどの地主貴族（土地貴族）が含まれる。
 </t>
         </is>
       </c>
+      <c r="H92" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I92" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">なし
 </t>
         </is>
       </c>
@@ -17066,12 +16771,7 @@
 </t>
         </is>
       </c>
-      <c r="K92" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="K92" s="1" t="n"/>
     </row>
     <row r="93" ht="165" customHeight="1">
       <c r="A93" t="n">
@@ -17084,59 +16784,54 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D93" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">![image](https://user-images.githubusercontent.com/37979626/198627653-e9af1aa3-ff0b-4f1a-a9ad-f7eeb1dc8c23.png)
 ![image](https://user-images.githubusercontent.com/37979626/198627977-5d85e3c6-06f9-4b89-a8d8-fbfa6ad1b43d.png)
 </t>
         </is>
       </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">護衛
+</t>
+        </is>
+      </c>
       <c r="E93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">護衛
+          <t xml:space="preserve">Convoys
 </t>
         </is>
       </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convoys
+          <t xml:space="preserve">輸送船団
 </t>
         </is>
       </c>
       <c r="G93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">輸送船団
+          <t xml:space="preserve">ここだけ表記ゆれを起こしているため
 </t>
         </is>
       </c>
       <c r="H93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ここだけ表記ゆれを起こしているため
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K93" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K93" s="1" t="n"/>
     </row>
     <row r="94" ht="75" customHeight="1">
       <c r="A94" t="n">
@@ -17149,59 +16844,54 @@
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![education](https://user-images.githubusercontent.com/50406316/198598819-fae86eeb-3cc1-42bf-9288-aa4c8b112382.png)
 </t>
         </is>
       </c>
       <c r="D94" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![education](https://user-images.githubusercontent.com/50406316/198598819-fae86eeb-3cc1-42bf-9288-aa4c8b112382.png)
+          <t xml:space="preserve">教育自由度
 </t>
         </is>
       </c>
       <c r="E94" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">教育自由度
+          <t xml:space="preserve">Education Access
 </t>
         </is>
       </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Education Access
+          <t xml:space="preserve">教育アクセス
 </t>
         </is>
       </c>
       <c r="G94" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">教育アクセス
-</t>
-        </is>
-      </c>
-      <c r="H94" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">時間とともに各POPの識字率は生活水準や諸々の補正に従ったターゲットに向けて近付いていくが、そのターゲット値にかかる補正値のこと。
 原文と訳語が異なっている。
 </t>
         </is>
       </c>
+      <c r="H94" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I94" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J94" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K94" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K94" s="1" t="n"/>
     </row>
     <row r="95" ht="75" customHeight="1">
       <c r="A95" t="n">
@@ -17214,59 +16904,54 @@
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/37979626/198565670-7203baf8-df1d-4bed-af62-89958c090811.png)
 </t>
         </is>
       </c>
       <c r="D95" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/37979626/198565670-7203baf8-df1d-4bed-af62-89958c090811.png)
+          <t xml:space="preserve">本部
 </t>
         </is>
       </c>
       <c r="E95" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">本部
-</t>
-        </is>
-      </c>
-      <c r="F95" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">HQ
 Headquarter
 </t>
         </is>
       </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">司令部
+</t>
+        </is>
+      </c>
       <c r="G95" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">司令部
+          <t xml:space="preserve">一般的な用語への変更（誤訳と思われる）
 </t>
         </is>
       </c>
       <c r="H95" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">一般的な用語への変更（誤訳と思われる）
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I95" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J95" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K95" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K95" s="1" t="n"/>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="n">
@@ -17279,52 +16964,47 @@
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">公共施設
 </t>
         </is>
       </c>
       <c r="D96" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">公共施設
+          <t xml:space="preserve">Institution
 </t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Institution
+          <t xml:space="preserve">政府機関、行政機関など
 </t>
         </is>
       </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">政府機関、行政機関など
+          <t xml:space="preserve">政府において行政を遂行するような、官公庁の役割を果たしているため。
 </t>
         </is>
       </c>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">政府において行政を遂行するような、官公庁の役割を果たしているため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="H96" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="I96" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="J96" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="J96" s="1" t="n"/>
       <c r="K96" s="1" t="n"/>
     </row>
     <row r="97" ht="90" customHeight="1">
@@ -17338,32 +17018,26 @@
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D97" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">臣下
 君主国
 </t>
         </is>
       </c>
-      <c r="E97" s="1" t="inlineStr">
+      <c r="D97" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">subject
 overlord
 </t>
         </is>
       </c>
-      <c r="F97" s="1" t="inlineStr">
+      <c r="E97" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">従属国
 宗主国
 </t>
         </is>
       </c>
-      <c r="G97" s="1" t="inlineStr">
+      <c r="F97" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">外交関係を示す適切な用語ではないため。
 puppet, tributary, dominion, protectorateなど幅広い主従関係を包括する用語なので、広い意味を持つ訳語を充てたい。
@@ -17371,9 +17045,15 @@
 </t>
         </is>
       </c>
+      <c r="G97" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="H97" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
@@ -17383,12 +17063,7 @@
 </t>
         </is>
       </c>
-      <c r="J97" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
+      <c r="J97" s="1" t="n"/>
       <c r="K97" s="1" t="n"/>
     </row>
     <row r="98" ht="165" customHeight="1">
@@ -17402,36 +17077,30 @@
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D98" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">![heritage](https://user-images.githubusercontent.com/50406316/198508714-9a9287c4-bc74-45f3-a64b-903c1ddbb27e.png)
 ![heritage_text](https://user-images.githubusercontent.com/50406316/198508738-d3036aaf-1a86-4837-85f0-99cb31772aa6.png)
 </t>
         </is>
       </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">伝統/遺産
+</t>
+        </is>
+      </c>
       <c r="E98" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">伝統/遺産
+          <t xml:space="preserve">Heritage
 </t>
         </is>
       </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heritage
+          <t xml:space="preserve">表記ゆれがあって統一したいが、適切な訳語が無いので議論参加希望します
 </t>
         </is>
       </c>
       <c r="G98" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">表記ゆれがあって統一したいが、適切な訳語が無いので議論参加希望します
-</t>
-        </is>
-      </c>
-      <c r="H98" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">各文化についている特性の一つで、主に出身地に紐づけられているが、実際は19世紀当時における人種の概念を意味していると思われる。
 ただ現在のゲームで人種と書くのは政治的問題があるせいでぼかした造語にしていると思われ、そのせいで適切な訳語が無い。個人的には「伝統」も「遺産」も違和感がある。
@@ -17439,24 +17108,25 @@
 </t>
         </is>
       </c>
+      <c r="H98" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I98" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J98" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K98" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K98" s="1" t="n"/>
     </row>
     <row r="99" ht="75" customHeight="1">
       <c r="A99" t="n">
@@ -17469,58 +17139,53 @@
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Services](https://user-images.githubusercontent.com/50406316/198501441-58c1a770-0c90-4881-aaf1-49759153a3de.png)
 </t>
         </is>
       </c>
       <c r="D99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Services](https://user-images.githubusercontent.com/50406316/198501441-58c1a770-0c90-4881-aaf1-49759153a3de.png)
+          <t xml:space="preserve">奉仕
 </t>
         </is>
       </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉仕
+          <t xml:space="preserve">Services
 </t>
         </is>
       </c>
       <c r="F99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Services
+          <t xml:space="preserve">サービス
 </t>
         </is>
       </c>
       <c r="G99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">サービス
+          <t xml:space="preserve">奉仕では直訳で違和感がある。Urban Center（市街地）で生産されるので、サービス業の役務提供を想定していると思われるため。
 </t>
         </is>
       </c>
       <c r="H99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉仕では直訳で違和感がある。Urban Center（市街地）で生産されるので、サービス業の役務提供を想定していると思われるため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K99" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K99" s="1" t="n"/>
     </row>
     <row r="100" ht="75" customHeight="1">
       <c r="A100" t="n">
@@ -17533,58 +17198,53 @@
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![interest](https://user-images.githubusercontent.com/50406316/198495500-4e1f4ff7-798f-46cd-839d-d59bfb8250c9.png)
 </t>
         </is>
       </c>
       <c r="D100" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![interest](https://user-images.githubusercontent.com/50406316/198495500-4e1f4ff7-798f-46cd-839d-d59bfb8250c9.png)
+          <t xml:space="preserve">利益
 </t>
         </is>
       </c>
       <c r="E100" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">利益
+          <t xml:space="preserve">Interest
 </t>
         </is>
       </c>
       <c r="F100" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Interest
+          <t xml:space="preserve">利息
 </t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">利息
+          <t xml:space="preserve">誤訳修正
 </t>
         </is>
       </c>
       <c r="H100" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">誤訳修正
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I100" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J100" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K100" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K100" s="1" t="n"/>
     </row>
     <row r="101" ht="90" customHeight="1">
       <c r="A101" t="n">
@@ -17597,58 +17257,53 @@
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![National_Supremacy](https://user-images.githubusercontent.com/50406316/198470547-ca079382-c63f-42bb-974b-b293e0da8411.png)
 </t>
         </is>
       </c>
       <c r="D101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![National_Supremacy](https://user-images.githubusercontent.com/50406316/198470547-ca079382-c63f-42bb-974b-b293e0da8411.png)
+          <t xml:space="preserve">国家至上 
 </t>
         </is>
       </c>
       <c r="E101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">国家至上 
+          <t xml:space="preserve">National Supremacy
 </t>
         </is>
       </c>
       <c r="F101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">National Supremacy
+          <t xml:space="preserve">国民至上
 </t>
         </is>
       </c>
       <c r="G101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">国民至上
+          <t xml:space="preserve">主要文化とheriageおよび言語が共通の文化だけ市民権がある、いわゆる国民国家（Nation State）を想定した制度であり、Nationalは国家よりは国民と訳したほうが適切だと考えるため
 </t>
         </is>
       </c>
       <c r="H101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">主要文化とheriageおよび言語が共通の文化だけ市民権がある、いわゆる国民国家（Nation State）を想定した制度であり、Nationalは国家よりは国民と訳したほうが適切だと考えるため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J101" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K101" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K101" s="1" t="n"/>
     </row>
     <row r="102" ht="90" customHeight="1">
       <c r="A102" t="n">
@@ -17661,62 +17316,57 @@
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Legal_Guardianship](https://user-images.githubusercontent.com/50406316/198466314-498b3d79-5bab-4363-ac90-7bade07f6b7c.png)
 </t>
         </is>
       </c>
       <c r="D102" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">![Legal_Guardianship](https://user-images.githubusercontent.com/50406316/198466314-498b3d79-5bab-4363-ac90-7bade07f6b7c.png)
-</t>
-        </is>
-      </c>
-      <c r="E102" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">後見人
 女性は法的には男性の保護下にあり、ほとんど権利を享受していません。
 </t>
         </is>
       </c>
-      <c r="F102" s="1" t="inlineStr">
+      <c r="E102" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Legal Guardianship
 Women are legally under the guardianship of men and enjoy very few rights.
 </t>
         </is>
       </c>
-      <c r="G102" s="1" t="inlineStr">
+      <c r="F102" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">被後見
 女性は法的には男性の後見下にあり、ほとんど権利を享受していません。
 </t>
         </is>
       </c>
-      <c r="H102" s="1" t="inlineStr">
+      <c r="G102" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">後見している側ではなくされている側を指すため。
 説明テキストではguardianship が保護とされており、訳語不統一になっているため、こちらも後見に統一する。
 </t>
         </is>
       </c>
+      <c r="H102" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I102" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J102" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K102" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K102" s="1" t="n"/>
     </row>
     <row r="103" ht="75" customHeight="1">
       <c r="A103" t="n">
@@ -17729,58 +17379,53 @@
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Steel_Mills](https://user-images.githubusercontent.com/50406316/198462562-0bc929c9-7a49-4407-839b-337c231632d7.png)
 </t>
         </is>
       </c>
       <c r="D103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Steel_Mills](https://user-images.githubusercontent.com/50406316/198462562-0bc929c9-7a49-4407-839b-337c231632d7.png)
+          <t xml:space="preserve">製鋼工場
 </t>
         </is>
       </c>
       <c r="E103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">製鋼工場
+          <t xml:space="preserve">Steel Mills
 </t>
         </is>
       </c>
       <c r="F103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Steel Mills
+          <t xml:space="preserve">製鉄所
 </t>
         </is>
       </c>
       <c r="G103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">製鉄所
+          <t xml:space="preserve">製鋼工場でも間違いではないが、製鉄所のほうがより一般的な訳語であるため
 </t>
         </is>
       </c>
       <c r="H103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">製鋼工場でも間違いではないが、製鉄所のほうがより一般的な訳語であるため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K103" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K103" s="1" t="n"/>
     </row>
     <row r="104" ht="75" customHeight="1">
       <c r="A104" t="n">
@@ -17793,58 +17438,53 @@
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Power_Plants](https://user-images.githubusercontent.com/50406316/198455497-d46629cd-eb05-42a0-a0eb-7244066d0954.png)
 </t>
         </is>
       </c>
       <c r="D104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Power_Plants](https://user-images.githubusercontent.com/50406316/198455497-d46629cd-eb05-42a0-a0eb-7244066d0954.png)
+          <t xml:space="preserve">電力プラント
 </t>
         </is>
       </c>
       <c r="E104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">電力プラント
+          <t xml:space="preserve">Power Plants
 </t>
         </is>
       </c>
       <c r="F104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Plants
+          <t xml:space="preserve">発電所
 </t>
         </is>
       </c>
       <c r="G104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">発電所
+          <t xml:space="preserve">電力プラントでも間違いではないが、一般的には発電所と訳すのが定訳であるため
 </t>
         </is>
       </c>
       <c r="H104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">電力プラントでも間違いではないが、一般的には発電所と訳すのが定訳であるため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J104" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K104" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K104" s="1" t="n"/>
     </row>
     <row r="105" ht="75" customHeight="1">
       <c r="A105" t="n">
@@ -17857,58 +17497,53 @@
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Urban_Center](https://user-images.githubusercontent.com/50406316/198453869-12a43e5e-a760-445b-a1d9-520a3ce23cb3.png)
 </t>
         </is>
       </c>
       <c r="D105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Urban_Center](https://user-images.githubusercontent.com/50406316/198453869-12a43e5e-a760-445b-a1d9-520a3ce23cb3.png)
+          <t xml:space="preserve">都市センター
 </t>
         </is>
       </c>
       <c r="E105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">都市センター
+          <t xml:space="preserve">Urban Center
 </t>
         </is>
       </c>
       <c r="F105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urban Center
+          <t xml:space="preserve">市街地
 </t>
         </is>
       </c>
       <c r="G105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">市街地
+          <t xml:space="preserve">誤訳の修正
 </t>
         </is>
       </c>
       <c r="H105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">誤訳の修正
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K105" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K105" s="1" t="n"/>
     </row>
     <row r="106" ht="120" customHeight="1">
       <c r="A106" t="n">
@@ -17921,59 +17556,54 @@
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![tea_plantations](https://user-images.githubusercontent.com/50406316/198449678-4ad3583d-06fe-4ac2-b39f-339010f67375.png)
 </t>
         </is>
       </c>
       <c r="D106" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![tea_plantations](https://user-images.githubusercontent.com/50406316/198449678-4ad3583d-06fe-4ac2-b39f-339010f67375.png)
+          <t xml:space="preserve">紅茶農園
 </t>
         </is>
       </c>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">紅茶農園
+          <t xml:space="preserve">Tea Plantations
 </t>
         </is>
       </c>
       <c r="F106" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tea Plantations
+          <t xml:space="preserve">茶農園 or 茶畑
 </t>
         </is>
       </c>
       <c r="G106" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">茶農園 or 茶畑
-</t>
-        </is>
-      </c>
-      <c r="H106" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">紅茶はあくまで製法の違いによってできるもので、栽培の時点では紅茶も緑茶その他もすべて同じチャノキであり、紅茶と限定する必要が無い。ゲーム上でも、インドでも日本でも同じ建造物が作れるので紅茶限定ではない。
 Plantationsが他の建造物で農園と訳されているので表現を合わせるなら「茶農園」になるが、より一般的な日本語では「茶畑」になる。
 </t>
         </is>
       </c>
+      <c r="H106" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I106" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J106" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K106" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K106" s="1" t="n"/>
     </row>
     <row r="107" ht="30" customHeight="1">
       <c r="A107" t="n">
@@ -17986,59 +17616,54 @@
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
-</t>
-        </is>
-      </c>
-      <c r="D107" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">※画像はドラッグ＆ドロップで貼り付けられます。
 ※できるだけ問題箇所の前後を含めて貼ってください。
 </t>
         </is>
       </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">木
+</t>
+        </is>
+      </c>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">木
+          <t xml:space="preserve">Wood
 </t>
         </is>
       </c>
       <c r="F107" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wood
+          <t xml:space="preserve">木材
 </t>
         </is>
       </c>
       <c r="G107" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">木材
+          <t xml:space="preserve">資源としてより適切な用語にしたい
 </t>
         </is>
       </c>
       <c r="H107" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">資源としてより適切な用語にしたい
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I107" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">Grand Edition
 </t>
         </is>
       </c>
       <c r="J107" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grand Edition
-</t>
-        </is>
-      </c>
-      <c r="K107" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">フォント置き換えMOD
 </t>
         </is>
       </c>
+      <c r="K107" s="1" t="n"/>
     </row>
     <row r="108" ht="75" customHeight="1">
       <c r="A108" t="n">
@@ -18051,61 +17676,56 @@
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198341488-f03ed2cd-135f-412f-861e-8d6c0f2addd2.png)
 </t>
         </is>
       </c>
       <c r="D108" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198341488-f03ed2cd-135f-412f-861e-8d6c0f2addd2.png)
-</t>
-        </is>
-      </c>
-      <c r="E108" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">武器産業
 軍需工場
 </t>
         </is>
       </c>
-      <c r="F108" s="1" t="inlineStr">
+      <c r="E108" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Arms Industries
 Munition Plants
 </t>
         </is>
       </c>
-      <c r="G108" s="1" t="inlineStr">
+      <c r="F108" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">武器工場
 弾薬工場
 </t>
         </is>
       </c>
+      <c r="G108" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">武器と弾薬それぞれ工場があり軍需工場だと武器も含まれてしまうためです
+</t>
+        </is>
+      </c>
       <c r="H108" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">武器と弾薬それぞれ工場があり軍需工場だと武器も含まれてしまうためです
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I108" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J108" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K108" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K108" s="1" t="n"/>
     </row>
     <row r="109" ht="75" customHeight="1">
       <c r="A109" t="n">
@@ -18118,58 +17738,53 @@
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198334336-294cbf7c-b64d-4afe-98c4-75689ebabb08.png)
 </t>
         </is>
       </c>
       <c r="D109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198334336-294cbf7c-b64d-4afe-98c4-75689ebabb08.png)
+          <t xml:space="preserve">医学学位
 </t>
         </is>
       </c>
       <c r="E109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">医学学位
+          <t xml:space="preserve">Medical Degrees
 </t>
         </is>
       </c>
       <c r="F109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Medical Degrees
+          <t xml:space="preserve">医学士
 </t>
         </is>
       </c>
       <c r="G109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">医学士
+          <t xml:space="preserve">こちらのほうがより一般的と思われます
 </t>
         </is>
       </c>
       <c r="H109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">こちらのほうがより一般的と思われます
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K109" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K109" s="1" t="n"/>
     </row>
     <row r="110" ht="75" customHeight="1">
       <c r="A110" t="n">
@@ -18182,58 +17797,53 @@
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198333050-8357345a-ad91-4b5b-94a1-6e4b39d2bff4.png)
 </t>
         </is>
       </c>
       <c r="D110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198333050-8357345a-ad91-4b5b-94a1-6e4b39d2bff4.png)
+          <t xml:space="preserve">学界
 </t>
         </is>
       </c>
       <c r="E110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">学界
+          <t xml:space="preserve">Academia
 </t>
         </is>
       </c>
       <c r="F110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Academia
+          <t xml:space="preserve">学術機関
 </t>
         </is>
       </c>
       <c r="G110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">学術機関
+          <t xml:space="preserve">内容が学問の世界という訳ではないと思われます
 </t>
         </is>
       </c>
       <c r="H110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">内容が学問の世界という訳ではないと思われます
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J110" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K110" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K110" s="1" t="n"/>
     </row>
     <row r="111" ht="75" customHeight="1">
       <c r="A111" t="n">
@@ -18246,58 +17856,53 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198326573-25a678fb-2187-4035-ae5a-e1de92791d0c.png)
 </t>
         </is>
       </c>
       <c r="D111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198326573-25a678fb-2187-4035-ae5a-e1de92791d0c.png)
+          <t xml:space="preserve">活動休止
 </t>
         </is>
       </c>
       <c r="E111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">活動休止
+          <t xml:space="preserve">(Inactive)
 </t>
         </is>
       </c>
       <c r="F111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">(Inactive)
+          <t xml:space="preserve">非アクティブ
 </t>
         </is>
       </c>
       <c r="G111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">非アクティブ
+          <t xml:space="preserve">有効なものをアクティブ、有効でないものを非アクティブとした方が分かりやすいと思われます
 </t>
         </is>
       </c>
       <c r="H111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">有効なものをアクティブ、有効でないものを非アクティブとした方が分かりやすいと思われます
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K111" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K111" s="1" t="n"/>
     </row>
     <row r="112" ht="75" customHeight="1">
       <c r="A112" t="n">
@@ -18310,58 +17915,53 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198324882-f4044cb3-8c50-4895-a683-d04767466321.png)
 </t>
         </is>
       </c>
       <c r="D112" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/29382778/198324882-f4044cb3-8c50-4895-a683-d04767466321.png)
+          <t xml:space="preserve">官僚制
 </t>
         </is>
       </c>
       <c r="E112" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">官僚制
+          <t xml:space="preserve">Bureaucracy
 </t>
         </is>
       </c>
       <c r="F112" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bureaucracy
+          <t xml:space="preserve">行政力
 </t>
         </is>
       </c>
       <c r="G112" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">行政力
+          <t xml:space="preserve">制度の名称ではないため
 </t>
         </is>
       </c>
       <c r="H112" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">制度の名称ではないため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I112" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">Grand Edition
 </t>
         </is>
       </c>
       <c r="J112" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grand Edition
-</t>
-        </is>
-      </c>
-      <c r="K112" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve">フォント置き換えMOD
 </t>
         </is>
       </c>
+      <c r="K112" s="1" t="n"/>
     </row>
     <row r="113" ht="195" customHeight="1">
       <c r="A113" t="n">
@@ -18374,58 +17974,53 @@
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198315130-8df2f97b-3017-498f-8aa7-b114ea574452.png)
 </t>
         </is>
       </c>
       <c r="D113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198315130-8df2f97b-3017-498f-8aa7-b114ea574452.png)
+          <t xml:space="preserve">エンクロージャー
 </t>
         </is>
       </c>
       <c r="E113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">エンクロージャー
+          <t xml:space="preserve">Enclosure
 </t>
         </is>
       </c>
       <c r="F113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enclosure
+          <t xml:space="preserve">囲い込み
 </t>
         </is>
       </c>
       <c r="G113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">囲い込み
+          <t xml:space="preserve">https://ja.wikipedia.org/wiki/%E5%9B%B2%E3%81%84%E8%BE%BC%E3%81%BF#:~:text=%E5%9B%B2%E3%81%84%E8%BE%BC%E3%81%BF%EF%BC%88%E3%81%8B%E3%81%93%E3%81%84%E3%81%93%E3%81%BF%E3%80%81%E8%8B%B1%E8%AA%9E%3A,%E3%82%8F%E3%82%8C%E3%81%9F%E3%82%82%E3%81%AE%E3%82%92%E6%8C%87%E3%81%99%E3%80%82
 </t>
         </is>
       </c>
       <c r="H113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://ja.wikipedia.org/wiki/%E5%9B%B2%E3%81%84%E8%BE%BC%E3%81%BF#:~:text=%E5%9B%B2%E3%81%84%E8%BE%BC%E3%81%BF%EF%BC%88%E3%81%8B%E3%81%93%E3%81%84%E3%81%93%E3%81%BF%E3%80%81%E8%8B%B1%E8%AA%9E%3A,%E3%82%8F%E3%82%8C%E3%81%9F%E3%82%82%E3%81%AE%E3%82%92%E6%8C%87%E3%81%99%E3%80%82
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K113" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K113" s="1" t="n"/>
     </row>
     <row r="114" ht="75" customHeight="1">
       <c r="A114" t="n">
@@ -18438,58 +18033,53 @@
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198313322-9b886dc8-3bf2-49b4-afae-5537194bb4cd.png)
 </t>
         </is>
       </c>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/70930137/198313322-9b886dc8-3bf2-49b4-afae-5537194bb4cd.png)
+          <t xml:space="preserve">戦争宣伝
 </t>
         </is>
       </c>
       <c r="E114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">戦争宣伝
+          <t xml:space="preserve">War Propaganda
 </t>
         </is>
       </c>
       <c r="F114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">War Propaganda
+          <t xml:space="preserve">戦争プロパガンダ
 </t>
         </is>
       </c>
       <c r="G114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">戦争プロパガンダ
+          <t xml:space="preserve">こちらのほうが馴染みのある表現だと思われます
 </t>
         </is>
       </c>
       <c r="H114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">こちらのほうが馴染みのある表現だと思われます
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="I114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J114" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K114" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K114" s="1" t="n"/>
     </row>
     <row r="115" ht="75" customHeight="1">
       <c r="A115" t="n">
@@ -18610,58 +18200,53 @@
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![inebatake](https://user-images.githubusercontent.com/50406316/198260001-0c939942-a515-4b7c-ac98-321e7154109f.png)
 </t>
         </is>
       </c>
       <c r="D117" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![inebatake](https://user-images.githubusercontent.com/50406316/198260001-0c939942-a515-4b7c-ac98-321e7154109f.png)
+          <t xml:space="preserve">稲畑
 </t>
         </is>
       </c>
       <c r="E117" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">稲畑
+          <t xml:space="preserve">Rice Farms
 </t>
         </is>
       </c>
       <c r="F117" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rice Farms
+          <t xml:space="preserve">田
 </t>
         </is>
       </c>
       <c r="G117" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">田
+          <t xml:space="preserve">日本語として通常使う呼び名ではなく、誤訳であるため
 </t>
         </is>
       </c>
       <c r="H117" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">日本語として通常使う呼び名ではなく、誤訳であるため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I117" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J117" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K117" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K117" s="1" t="n"/>
     </row>
     <row r="118" ht="120" customHeight="1">
       <c r="A118" t="n">
@@ -18674,17 +18259,11 @@
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027163401_1](https://user-images.githubusercontent.com/42710893/198226431-d8ddfb60-64b8-472f-9bf2-8f3daf0fa6d7.jpg)
 </t>
         </is>
       </c>
       <c r="D118" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">![20221027163401_1](https://user-images.githubusercontent.com/42710893/198226431-d8ddfb60-64b8-472f-9bf2-8f3daf0fa6d7.jpg)
-</t>
-        </is>
-      </c>
-      <c r="E118" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">手元資金は以上25％です
 週次利益以上0.00
@@ -18693,7 +18272,7 @@
 </t>
         </is>
       </c>
-      <c r="F118" s="1" t="inlineStr">
+      <c r="E118" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">`The [concept_cash_reserves] is $COMPARATOR$ $NUM|%0v$`
 `Weekly profit $COMPARATOR$ #variable $NUM$#!`
@@ -18701,7 +18280,7 @@
 </t>
         </is>
       </c>
-      <c r="G118" s="1" t="inlineStr">
+      <c r="F118" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">手元資金は25％以上です
 週次利益**は**0.00以上です
@@ -18711,30 +18290,31 @@
 </t>
         </is>
       </c>
+      <c r="G118" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本語として不自然なため
+</t>
+        </is>
+      </c>
       <c r="H118" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">日本語として不自然なため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I118" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J118" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K118" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K118" s="1" t="n"/>
     </row>
     <row r="119" ht="90" customHeight="1">
       <c r="A119" t="n">
@@ -18747,44 +18327,44 @@
       </c>
       <c r="C119" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027145601_1](https://user-images.githubusercontent.com/43299334/198203237-83687da9-61ff-4f48-91d1-3f23e83ea7c3.jpg)
 </t>
         </is>
       </c>
       <c r="D119" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221027145601_1](https://user-images.githubusercontent.com/43299334/198203237-83687da9-61ff-4f48-91d1-3f23e83ea7c3.jpg)
+          <t xml:space="preserve">製法
 </t>
         </is>
       </c>
       <c r="E119" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">製法
+          <t xml:space="preserve">Production Method
 </t>
         </is>
       </c>
       <c r="F119" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Production Method
+          <t xml:space="preserve">生産方式、仕様など
 </t>
         </is>
       </c>
       <c r="G119" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">生産方式、仕様など
-</t>
-        </is>
-      </c>
-      <c r="H119" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">画像のように、製造業以外の施設にも適用されるため。
 Production Methodの定訳としては生産方式だが、どちらにしてもユニットの性質などの話になってくると違和感が強いため、別の案としてとりあえず「仕様」を挙げておく。
 </t>
         </is>
       </c>
+      <c r="H119" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I119" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">なし
 </t>
         </is>
       </c>
@@ -18794,12 +18374,7 @@
 </t>
         </is>
       </c>
-      <c r="K119" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="K119" s="1" t="n"/>
     </row>
     <row r="120" ht="90" customHeight="1">
       <c r="A120" t="n">
@@ -18812,43 +18387,43 @@
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027144328_1](https://user-images.githubusercontent.com/43299334/198201578-e1b3bbfe-cd49-4ebf-bbf9-cebb28544e98.jpg)
 </t>
         </is>
       </c>
       <c r="D120" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221027144328_1](https://user-images.githubusercontent.com/43299334/198201578-e1b3bbfe-cd49-4ebf-bbf9-cebb28544e98.jpg)
+          <t xml:space="preserve">ロウ
 </t>
         </is>
       </c>
       <c r="E120" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ロウ
+          <t xml:space="preserve">Law
 </t>
         </is>
       </c>
       <c r="F120" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Law
+          <t xml:space="preserve">法律
 </t>
         </is>
       </c>
       <c r="G120" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">法律
+          <t xml:space="preserve">なぜか音写されている。ちなみにLawsは法律と訳されている。
 </t>
         </is>
       </c>
       <c r="H120" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">なぜか音写されている。ちなみにLawsは法律と訳されている。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I120" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">なし
 </t>
         </is>
       </c>
@@ -18858,12 +18433,7 @@
 </t>
         </is>
       </c>
-      <c r="K120" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="K120" s="1" t="n"/>
     </row>
     <row r="121" ht="90" customHeight="1">
       <c r="A121" t="n">
@@ -18876,43 +18446,43 @@
       </c>
       <c r="C121" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027070750_1](https://user-images.githubusercontent.com/43299334/198200563-a0bb9198-bd63-4cb2-8765-761e1045bcd3.jpg)
 </t>
         </is>
       </c>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221027070750_1](https://user-images.githubusercontent.com/43299334/198200563-a0bb9198-bd63-4cb2-8765-761e1045bcd3.jpg)
+          <t xml:space="preserve">海軍の侵略
 </t>
         </is>
       </c>
       <c r="E121" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">海軍の侵略
+          <t xml:space="preserve">Naval Invasion
 </t>
         </is>
       </c>
       <c r="F121" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naval Invasion
+          <t xml:space="preserve">上陸作戦
 </t>
         </is>
       </c>
       <c r="G121" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">上陸作戦
+          <t xml:space="preserve">実際のゲームメカニズムと異なっているため
 </t>
         </is>
       </c>
       <c r="H121" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">実際のゲームメカニズムと異なっているため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I121" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">なし
 </t>
         </is>
       </c>
@@ -18922,12 +18492,7 @@
 </t>
         </is>
       </c>
-      <c r="K121" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="K121" s="1" t="n"/>
     </row>
     <row r="122" ht="105" customHeight="1">
       <c r="A122" t="n">
@@ -18940,35 +18505,29 @@
       </c>
       <c r="C122" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027103400_1](https://user-images.githubusercontent.com/43299334/198199487-15bb22fb-c514-43df-bfd1-1dcfa9a7cec4.jpg)
 </t>
         </is>
       </c>
       <c r="D122" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221027103400_1](https://user-images.githubusercontent.com/43299334/198199487-15bb22fb-c514-43df-bfd1-1dcfa9a7cec4.jpg)
+          <t xml:space="preserve">補給艦
 </t>
         </is>
       </c>
       <c r="E122" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">補給艦
+          <t xml:space="preserve">Flotilla
 </t>
         </is>
       </c>
       <c r="F122" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flotilla
+          <t xml:space="preserve">小艦隊
 </t>
         </is>
       </c>
       <c r="G122" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">小艦隊
-</t>
-        </is>
-      </c>
-      <c r="H122" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">誤訳。特に補給艦という意味はないので意訳を試みたものと思われる。
 ゲーム的には海軍基地（恐らく）１単位と紐付けられた海軍の最小戦力単位。
@@ -18976,9 +18535,15 @@
 </t>
         </is>
       </c>
+      <c r="H122" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I122" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">なし
 </t>
         </is>
       </c>
@@ -18988,12 +18553,7 @@
 </t>
         </is>
       </c>
-      <c r="K122" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+      <c r="K122" s="1" t="n"/>
     </row>
     <row r="123" ht="1485" customHeight="1">
       <c r="A123" t="n">
@@ -19006,17 +18566,11 @@
       </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![law_desc](https://user-images.githubusercontent.com/50406316/198168974-9f3f6a6d-40d0-4ccd-bc08-7eea76e34b08.png)
 </t>
         </is>
       </c>
       <c r="D123" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">![law_desc](https://user-images.githubusercontent.com/50406316/198168974-9f3f6a6d-40d0-4ccd-bc08-7eea76e34b08.png)
-</t>
-        </is>
-      </c>
-      <c r="E123" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">triggers_l_japanese.yml内の下記テキスト
  TRIGGER_SHARES_TRAIT_WITH_ANY_PRIMARY_CULTURE:0 "[CULTURE.GetName]は[TARGET_COUNTRY.GetName]のあらゆる主要文化に共通する特性を持っています"
@@ -19034,7 +18588,7 @@
 </t>
         </is>
       </c>
-      <c r="F123" s="1" t="inlineStr">
+      <c r="E123" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> TRIGGER_SHARES_TRAIT_WITH_ANY_PRIMARY_CULTURE:0 "[CULTURE.GetName] shares a trait with any primary culture in [TARGET_COUNTRY.GetName]"
  TRIGGER_SHARES_TRAIT_WITH_ANY_PRIMARY_CULTURE_NOT:1 "[CULTURE.GetName] does #bold not #!share a trait with any primary culture in [TARGET_COUNTRY.GetName]"
@@ -19051,7 +18605,7 @@
 </t>
         </is>
       </c>
-      <c r="G123" s="1" t="inlineStr">
+      <c r="F123" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">以下の太字部分
  TRIGGER_SHARES_TRAIT_WITH_ANY_PRIMARY_CULTURE:0 "[CULTURE.GetName]は[TARGET_COUNTRY.GetName]の**いずれかの主要文化と共通する特性を持っています**"
@@ -19069,30 +18623,31 @@
 </t>
         </is>
       </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">heritage/non-heritage traitの表記ゆれ統一およびanyの誤訳修正
+</t>
+        </is>
+      </c>
       <c r="H123" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">heritage/non-heritage traitの表記ゆれ統一およびanyの誤訳修正
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I123" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J123" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K123" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K123" s="1" t="n"/>
     </row>
     <row r="124" ht="90" customHeight="1">
       <c r="A124" t="n">
@@ -19105,58 +18660,53 @@
       </c>
       <c r="C124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![power_structure](https://user-images.githubusercontent.com/50406316/198167954-315748ac-cd9c-49e9-86c3-5349223c2a43.png)
 </t>
         </is>
       </c>
       <c r="D124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![power_structure](https://user-images.githubusercontent.com/50406316/198167954-315748ac-cd9c-49e9-86c3-5349223c2a43.png)
+          <t xml:space="preserve">電力建造物
 </t>
         </is>
       </c>
       <c r="E124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">電力建造物
+          <t xml:space="preserve">Power Structure
 </t>
         </is>
       </c>
       <c r="F124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Structure
+          <t xml:space="preserve">権力構造
 </t>
         </is>
       </c>
       <c r="G124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">権力構造
+          <t xml:space="preserve">誤訳のため
 </t>
         </is>
       </c>
       <c r="H124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">誤訳のため
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J124" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K124" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K124" s="1" t="n"/>
     </row>
     <row r="125" ht="90" customHeight="1">
       <c r="A125" t="n">
@@ -19169,35 +18719,29 @@
       </c>
       <c r="C125" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027065146_1](https://user-images.githubusercontent.com/43299334/198146264-ffc5b736-99b5-47e6-9645-a67bf68c933c.jpg)
 </t>
         </is>
       </c>
       <c r="D125" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221027065146_1](https://user-images.githubusercontent.com/43299334/198146264-ffc5b736-99b5-47e6-9645-a67bf68c933c.jpg)
+          <t xml:space="preserve">イニシエータ、対象
 </t>
         </is>
       </c>
       <c r="E125" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">イニシエータ、対象
+          <t xml:space="preserve">Initiator,Target
 </t>
         </is>
       </c>
       <c r="F125" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Initiator,Target
+          <t xml:space="preserve">提唱国、対象国
 </t>
         </is>
       </c>
       <c r="G125" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">提唱国、対象国
-</t>
-        </is>
-      </c>
-      <c r="H125" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">イニシエータの表記以降、「あなた」の部分などが見切れている。
 UIを調整してもよいが、InitiatorとTargetはセットの概念になっており、統一感のあるものとした方が良さそう。
@@ -19205,24 +18749,25 @@
 </t>
         </is>
       </c>
+      <c r="H125" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I125" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J125" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K125" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K125" s="1" t="n"/>
     </row>
     <row r="126" ht="90" customHeight="1">
       <c r="A126" t="n">
@@ -19235,59 +18780,54 @@
       </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027064944_1](https://user-images.githubusercontent.com/43299334/198145714-2b9f57ce-b5d6-42ba-a773-8a909ce21d40.jpg)
 </t>
         </is>
       </c>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221027064944_1](https://user-images.githubusercontent.com/43299334/198145714-2b9f57ce-b5d6-42ba-a773-8a909ce21d40.jpg)
+          <t xml:space="preserve">ウォー
 </t>
         </is>
       </c>
       <c r="E126" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ウォー
+          <t xml:space="preserve">War
 </t>
         </is>
       </c>
       <c r="F126" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">War
+          <t xml:space="preserve">戦争
 </t>
         </is>
       </c>
       <c r="G126" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">戦争
-</t>
-        </is>
-      </c>
-      <c r="H126" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">なぜか音写されており意味が分かりにくいため。
 特に一般的な戦争と異なる概念ではない。
 </t>
         </is>
       </c>
+      <c r="H126" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I126" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J126" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K126" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K126" s="1" t="n"/>
     </row>
     <row r="127" ht="90" customHeight="1">
       <c r="A127" t="n">
@@ -19300,35 +18840,29 @@
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![20221027064418_1](https://user-images.githubusercontent.com/43299334/198144579-8ff5b7d1-d1d8-4f08-b4ca-b953eb5bd865.jpg)
 </t>
         </is>
       </c>
       <c r="D127" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![20221027064418_1](https://user-images.githubusercontent.com/43299334/198144579-8ff5b7d1-d1d8-4f08-b4ca-b953eb5bd865.jpg)
+          <t xml:space="preserve">外交プレイ
 </t>
         </is>
       </c>
       <c r="E127" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">外交プレイ
+          <t xml:space="preserve">Diplomatic play
 </t>
         </is>
       </c>
       <c r="F127" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diplomatic play
+          <t xml:space="preserve">外交戦
 </t>
         </is>
       </c>
       <c r="G127" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">外交戦
-</t>
-        </is>
-      </c>
-      <c r="H127" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">直訳になっているが、直感的に意味がわからず、あまりよい訳語にはなっていない。
 グラフィックや、常に敵対する主要対戦相手が一国あることなどからチェスの対戦をイメージしているのは明らかであり、
@@ -19336,24 +18870,25 @@
 </t>
         </is>
       </c>
+      <c r="H127" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I127" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J127" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K127" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K127" s="1" t="n"/>
     </row>
     <row r="128" ht="90" customHeight="1">
       <c r="A128" t="n">
@@ -19366,58 +18901,53 @@
       </c>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Motor_Industries](https://user-images.githubusercontent.com/50406316/198104870-84c7fc49-17ec-4fd9-ba41-f746bf6432eb.png)
 </t>
         </is>
       </c>
       <c r="D128" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Motor_Industries](https://user-images.githubusercontent.com/50406316/198104870-84c7fc49-17ec-4fd9-ba41-f746bf6432eb.png)
+          <t xml:space="preserve">自動車産業
 </t>
         </is>
       </c>
       <c r="E128" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">自動車産業
+          <t xml:space="preserve">Motor Industries
 </t>
         </is>
       </c>
       <c r="F128" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor Industries
+          <t xml:space="preserve">発動機産業
 </t>
         </is>
       </c>
       <c r="G128" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">発動機産業
+          <t xml:space="preserve">誤訳。生産物はEngines（発動機）であり、画像で作っているのも機関車であるため。
 </t>
         </is>
       </c>
       <c r="H128" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">誤訳。生産物はEngines（発動機）であり、画像で作っているのも機関車であるため。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I128" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J128" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K128" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K128" s="1" t="n"/>
     </row>
     <row r="129" ht="75" customHeight="1">
       <c r="A129" t="n">
@@ -19430,58 +18960,53 @@
       </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Debt_Slavery](https://user-images.githubusercontent.com/50406316/198101293-58ea8c09-57bf-49a5-98d9-e596fed3d3c9.png)
 </t>
         </is>
       </c>
       <c r="D129" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">![Debt_Slavery](https://user-images.githubusercontent.com/50406316/198101293-58ea8c09-57bf-49a5-98d9-e596fed3d3c9.png)
+          <t xml:space="preserve">役身折酬
 </t>
         </is>
       </c>
       <c r="E129" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">役身折酬
+          <t xml:space="preserve">Debt Slavery
 </t>
         </is>
       </c>
       <c r="F129" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Debt Slavery
+          <t xml:space="preserve">債務奴隷
 </t>
         </is>
       </c>
       <c r="G129" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">債務奴隷
+          <t xml:space="preserve">役身折酬は古代史用語で一般に使用する用語ではないため、より一般的な名称の債務奴隷としたい。
 </t>
         </is>
       </c>
       <c r="H129" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">役身折酬は古代史用語で一般に使用する用語ではないため、より一般的な名称の債務奴隷としたい。
+          <t xml:space="preserve">1.0.3
 </t>
         </is>
       </c>
       <c r="I129" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J129" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K129" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K129" s="1" t="n"/>
     </row>
     <row r="130" ht="90" customHeight="1">
       <c r="A130" t="n">
@@ -19494,62 +19019,57 @@
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![Peasant_Levies](https://user-images.githubusercontent.com/50406316/198100700-1a529cf1-f602-4895-9907-6da4b510b46e.png)
 </t>
         </is>
       </c>
       <c r="D130" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">![Peasant_Levies](https://user-images.githubusercontent.com/50406316/198100700-1a529cf1-f602-4895-9907-6da4b510b46e.png)
-</t>
-        </is>
-      </c>
-      <c r="E130" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">農民徴兵
 軍隊の主力は、基礎訓練を受けていない徴兵制の歩兵です。
 </t>
         </is>
       </c>
-      <c r="F130" s="1" t="inlineStr">
+      <c r="E130" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Peasant Levies
 The army's main force comes from conscripted infantry with zero to basic training.
 </t>
         </is>
       </c>
-      <c r="G130" s="1" t="inlineStr">
+      <c r="F130" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">農民召集兵
 軍隊の主力は、全く基礎訓練を受けていない召集兵です。
 </t>
         </is>
       </c>
-      <c r="H130" s="1" t="inlineStr">
+      <c r="G130" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">こちらはLevyで、下にある大規模徴兵（Mass Conscription）と訳し分けたい。
 意味合い的にも、制度化された徴兵ではなく、臨時で召集される農民を指していると思われるため。
 </t>
         </is>
       </c>
+      <c r="H130" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0.3
+</t>
+        </is>
+      </c>
       <c r="I130" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.3
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="J130" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="K130" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">なし
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">なし
+</t>
+        </is>
+      </c>
+      <c r="K130" s="1" t="n"/>
     </row>
     <row r="131" ht="75" customHeight="1">
       <c r="A131" t="n">
@@ -19562,47 +19082,41 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">＜ゲームシステム用語＞
+          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/46787431/198010029-820bf201-8fc0-4b50-b127-61a47093a712.png)
 </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">![image](https://user-images.githubusercontent.com/46787431/198010029-820bf201-8fc0-4b50-b127-61a47093a712.png)
+          <t xml:space="preserve">ギャリゾン
 </t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">ギャリゾン
+          <t xml:space="preserve">未割当or駐屯中
 </t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve">未割当or駐屯中
+          <t xml:space="preserve">日本語になっていた方が分かりやすい
 </t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t xml:space="preserve">日本語になっていた方が分かりやすい
+          <t xml:space="preserve">1.0.1
 </t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0.1
+          <t xml:space="preserve">無し
 </t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">無し
-</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
         <is>
           <t xml:space="preserve">なし
 </t>
